--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50919B62-CE3D-43EC-8412-72283B5EC862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63017746-6F30-4818-9E17-B51BA2BE7696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -240,6 +229,22 @@
   </si>
   <si>
     <t>大本营血量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人最多允许建造塔数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitTowerCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>interestOnDeposit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波次结束结算存款利息(%)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -657,25 +662,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="26.21875" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -695,25 +706,29 @@
         <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1"/>
-      <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -726,8 +741,10 @@
       <c r="X1"/>
       <c r="Y1"/>
       <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -742,8 +759,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -756,8 +773,10 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -777,10 +796,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>28</v>
@@ -789,13 +808,17 @@
         <v>28</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M3"/>
-      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -808,8 +831,10 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -826,8 +851,8 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4"/>
-      <c r="N4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -840,8 +865,10 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -861,25 +888,29 @@
         <v>35</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M5"/>
-      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -892,8 +923,10 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
@@ -904,28 +937,34 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>200</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6">
+        <v>20</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>25</v>
@@ -939,25 +978,31 @@
         <v>1000</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
         <v>9</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>200</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>26</v>
@@ -971,28 +1016,34 @@
         <v>1000</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
         <v>9</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>200</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{26ECF9BA-CEA9-434F-A67D-420245E18D9A}"/>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{26ECF9BA-CEA9-434F-A67D-420245E18D9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63017746-6F30-4818-9E17-B51BA2BE7696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66876100-A6C5-4EED-87D0-579D9DD5C626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -245,6 +245,13 @@
   </si>
   <si>
     <t>波次结束结算存款利息(%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_test</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseTest</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -662,31 +669,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -744,7 +751,7 @@
       <c r="AA1"/>
       <c r="AB1"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -776,7 +783,7 @@
       <c r="AA2"/>
       <c r="AB2"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -834,7 +841,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -868,7 +875,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -926,7 +933,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
         <v>24</v>
@@ -943,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>34</v>
@@ -964,7 +971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>25</v>
@@ -1002,7 +1009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>26</v>
@@ -1038,6 +1045,52 @@
       </c>
       <c r="N8" s="7" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66876100-A6C5-4EED-87D0-579D9DD5C626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AAB089-0454-4B13-A2EA-74715B2A6D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -168,18 +168,6 @@
     <t>MonsterWaveCallRule_1</t>
   </si>
   <si>
-    <t>GamePlayTowerDefense1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefense3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MonsterWaveCallRule_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -248,10 +236,43 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_test</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefenseTest</t>
+    <t>MonsterWaveCallRule_test1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_PVP</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_TATest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg1</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg2</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg3</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfgTutorialFirst</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_TATest</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_test11</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfgTest</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_TutorialFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_TutorialFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -669,31 +690,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -710,28 +731,28 @@
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>19</v>
@@ -751,7 +772,7 @@
       <c r="AA1"/>
       <c r="AB1"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -783,7 +804,7 @@
       <c r="AA2"/>
       <c r="AB2"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -800,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>22</v>
@@ -841,7 +862,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -875,7 +896,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -892,25 +913,25 @@
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>20</v>
@@ -933,10 +954,10 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
@@ -965,16 +986,16 @@
         <v>10</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
@@ -982,37 +1003,37 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
@@ -1041,56 +1062,170 @@
         <v>200</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>180</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>99999999</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>99999999</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>50000</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>500</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
         <v>20</v>
       </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-      <c r="K10">
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="L10">
+      <c r="L13">
         <v>10</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>27</v>
+      <c r="M13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AAB089-0454-4B13-A2EA-74715B2A6D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE84421C-6B23-4AA1-9FAE-577AAD6022A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -273,6 +284,75 @@
   </si>
   <si>
     <t>MonsterWaveCallRule_TutorialFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level4</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level5</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level6</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level7</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level8</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level9</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level10</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level11</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Level12</t>
+  </si>
+  <si>
+    <t>Infinite</t>
+  </si>
+  <si>
+    <t>无限模式</t>
+  </si>
+  <si>
+    <t>24卡版本1.0</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Infinite</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Infinite</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Infinite</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_testZpb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Zpb1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -690,31 +770,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="65.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -772,7 +852,7 @@
       <c r="AA1"/>
       <c r="AB1"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -804,7 +884,7 @@
       <c r="AA2"/>
       <c r="AB2"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -862,7 +942,7 @@
       <c r="AA3"/>
       <c r="AB3"/>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -896,7 +976,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -954,7 +1034,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
         <v>44</v>
@@ -992,7 +1072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>45</v>
@@ -1030,7 +1110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>46</v>
@@ -1068,7 +1148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>47</v>
@@ -1106,56 +1186,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>50000</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>99999</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>99999999</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>40</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>20</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>99999999</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
@@ -1163,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50000</v>
+        <v>99999999</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -1181,19 +1261,19 @@
         <v>3</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>99999999</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
@@ -1201,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I13">
         <v>8</v>
@@ -1219,13 +1299,589 @@
         <v>3</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="N13" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>500</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>500</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>500</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>500</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>500</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>40</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>500</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>500</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>500</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>500</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>40</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>500</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>40</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>500</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>600</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>60</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30" t="s">
+        <v>69</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624E15B3-2397-471A-ABF2-69111EFB0AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C96BADD-820C-49DE-B890-32CD874D9D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="169">
   <si>
     <t>##var</t>
   </si>
@@ -509,10 +522,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新手引导</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Challenge6</t>
   </si>
   <si>
@@ -586,6 +595,20 @@
   <si>
     <t>刷怪点刷怪生成时Action事件id（对应ActionConfig文件夹下表格）</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Infinite_Test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试-无限模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Infinite_Debug</t>
+  </si>
+  <si>
+    <t>新手引导</t>
   </si>
 </sst>
 </file>
@@ -982,27 +1005,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="6" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="2" customWidth="1"/>
-    <col min="7" max="12" width="8.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
+    <col min="7" max="11" width="8.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="34" style="2" customWidth="1"/>
-    <col min="15" max="16" width="24.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1074,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -1065,7 +1090,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1123,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1145,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1161,7 +1186,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1196,7 +1221,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1243,7 +1268,7 @@
         <v>38</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1259,18 +1284,18 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1279,16 +1304,16 @@
         <v>9999</v>
       </c>
       <c r="I6" s="2">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
         <v>10</v>
-      </c>
-      <c r="J6" s="2">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3</v>
-      </c>
-      <c r="L6" s="2">
-        <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>46</v>
@@ -1300,10 +1325,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>106</v>
       </c>
@@ -1326,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2">
         <v>3</v>
@@ -1344,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>110</v>
       </c>
@@ -1367,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K10" s="2">
         <v>3</v>
@@ -1385,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>113</v>
       </c>
@@ -1408,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K11" s="2">
         <v>3</v>
@@ -1426,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>116</v>
       </c>
@@ -1449,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2">
         <v>3</v>
@@ -1467,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
@@ -1490,7 +1515,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K13" s="2">
         <v>3</v>
@@ -1508,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>122</v>
       </c>
@@ -1531,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K14" s="2">
         <v>3</v>
@@ -1549,15 +1574,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
@@ -1575,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K15" s="2">
         <v>3</v>
@@ -1584,24 +1609,24 @@
         <v>10</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
@@ -1619,7 +1644,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K16" s="2">
         <v>3</v>
@@ -1628,24 +1653,24 @@
         <v>10</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
@@ -1663,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K17" s="2">
         <v>3</v>
@@ -1672,24 +1697,24 @@
         <v>10</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -1707,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2">
         <v>3</v>
@@ -1716,24 +1741,24 @@
         <v>10</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -1751,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K19" s="2">
         <v>3</v>
@@ -1760,27 +1785,27 @@
         <v>10</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>500</v>
+        <v>99999</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1792,27 +1817,27 @@
         <v>8</v>
       </c>
       <c r="J21" s="2">
+        <v>30</v>
+      </c>
+      <c r="K21" s="2">
+        <v>3</v>
+      </c>
+      <c r="L21" s="2">
+        <v>99999</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" s="2">
         <v>20</v>
       </c>
-      <c r="K21" s="2">
-        <v>3</v>
-      </c>
-      <c r="L21" s="2">
-        <v>10</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>140</v>
@@ -1821,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1833,16 +1858,16 @@
         <v>8</v>
       </c>
       <c r="J22" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K22" s="2">
         <v>3</v>
       </c>
       <c r="L22" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>41</v>
@@ -1851,9 +1876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>140</v>
@@ -1862,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -1871,19 +1896,19 @@
         <v>60</v>
       </c>
       <c r="I23" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J23" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K23" s="2">
         <v>3</v>
       </c>
       <c r="L23" s="2">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>41</v>
@@ -1892,9 +1917,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>140</v>
@@ -1903,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -1912,30 +1937,30 @@
         <v>60</v>
       </c>
       <c r="I24" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J24" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K24" s="2">
         <v>3</v>
       </c>
       <c r="L24" s="2">
-        <v>99999</v>
+        <v>200</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>140</v>
@@ -1944,80 +1969,80 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>60</v>
+      </c>
+      <c r="I25" s="2">
+        <v>100</v>
+      </c>
+      <c r="J25" s="2">
+        <v>30</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3</v>
+      </c>
+      <c r="L25" s="2">
+        <v>99999</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
         <v>5000</v>
       </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>60</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>60</v>
+      </c>
+      <c r="I26" s="2">
         <v>8</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J26" s="2">
+        <v>30</v>
+      </c>
+      <c r="K26" s="2">
+        <v>3</v>
+      </c>
+      <c r="L26" s="2">
+        <v>10</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="2">
         <v>20</v>
       </c>
-      <c r="K25" s="2">
-        <v>3</v>
-      </c>
-      <c r="L25" s="2">
-        <v>10</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>99999999</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>60</v>
-      </c>
-      <c r="I27" s="2">
-        <v>8</v>
-      </c>
-      <c r="J27" s="2">
-        <v>20</v>
-      </c>
-      <c r="K27" s="2">
-        <v>3</v>
-      </c>
-      <c r="L27" s="2">
-        <v>99999999</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>140</v>
@@ -2026,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>50000</v>
+        <v>99999999</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -2038,27 +2063,27 @@
         <v>8</v>
       </c>
       <c r="J28" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K28" s="2">
         <v>3</v>
       </c>
       <c r="L28" s="2">
-        <v>20</v>
+        <v>99999999</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>140</v>
@@ -2067,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
@@ -2079,77 +2104,77 @@
         <v>8</v>
       </c>
       <c r="J29" s="2">
+        <v>30</v>
+      </c>
+      <c r="K29" s="2">
+        <v>3</v>
+      </c>
+      <c r="L29" s="2">
         <v>20</v>
-      </c>
-      <c r="K29" s="2">
-        <v>3</v>
-      </c>
-      <c r="L29" s="2">
-        <v>10</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>500</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>60</v>
+      </c>
+      <c r="I30" s="2">
+        <v>8</v>
+      </c>
+      <c r="J30" s="2">
+        <v>30</v>
+      </c>
+      <c r="K30" s="2">
+        <v>3</v>
+      </c>
+      <c r="L30" s="2">
+        <v>10</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
         <v>600</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>60</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <v>20</v>
-      </c>
-      <c r="K31" s="2">
-        <v>3</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>200</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
@@ -2161,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K32" s="2">
         <v>3</v>
@@ -2170,27 +2195,27 @@
         <v>1</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
@@ -2202,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K33" s="2">
         <v>3</v>
@@ -2211,27 +2236,27 @@
         <v>1</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
@@ -2243,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K34" s="2">
         <v>3</v>
@@ -2252,27 +2277,27 @@
         <v>1</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -2284,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K35" s="2">
         <v>3</v>
@@ -2293,27 +2318,27 @@
         <v>1</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
@@ -2322,10 +2347,10 @@
         <v>60</v>
       </c>
       <c r="I36" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K36" s="2">
         <v>3</v>
@@ -2334,27 +2359,27 @@
         <v>1</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -2366,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K37" s="2">
         <v>3</v>
@@ -2375,27 +2400,27 @@
         <v>1</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
@@ -2407,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K38" s="2">
         <v>3</v>
@@ -2416,27 +2441,27 @@
         <v>1</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>560</v>
+        <v>390</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -2448,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K39" s="2">
         <v>3</v>
@@ -2457,27 +2482,27 @@
         <v>1</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -2486,10 +2511,10 @@
         <v>60</v>
       </c>
       <c r="I40" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J40" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K40" s="2">
         <v>3</v>
@@ -2498,21 +2523,21 @@
         <v>1</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
@@ -2530,7 +2555,7 @@
         <v>8</v>
       </c>
       <c r="J41" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K41" s="2">
         <v>3</v>
@@ -2539,27 +2564,27 @@
         <v>1</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -2571,7 +2596,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K42" s="2">
         <v>3</v>
@@ -2580,27 +2605,27 @@
         <v>1</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -2612,7 +2637,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K43" s="2">
         <v>3</v>
@@ -2621,21 +2646,21 @@
         <v>1</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O43" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
@@ -2653,7 +2678,7 @@
         <v>8</v>
       </c>
       <c r="J44" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K44" s="2">
         <v>3</v>
@@ -2662,21 +2687,21 @@
         <v>1</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O44" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
@@ -2694,7 +2719,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K45" s="2">
         <v>3</v>
@@ -2703,12 +2728,53 @@
         <v>1</v>
       </c>
       <c r="M45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>600</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>60</v>
+      </c>
+      <c r="I46" s="2">
+        <v>8</v>
+      </c>
+      <c r="J46" s="2">
+        <v>30</v>
+      </c>
+      <c r="K46" s="2">
+        <v>3</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N46" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O46" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C96BADD-820C-49DE-B890-32CD874D9D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55243AB4-BD50-4B5E-9A77-3B4D9D437555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1008,26 +995,26 @@
   <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="6" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="2" customWidth="1"/>
-    <col min="7" max="11" width="8.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
+    <col min="7" max="11" width="8.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="2" customWidth="1"/>
     <col min="13" max="14" width="34" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1077,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1110,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1173,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1221,7 +1208,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1284,7 +1271,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1313,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>46</v>
@@ -1325,10 +1312,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>106</v>
       </c>
@@ -1369,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>110</v>
       </c>
@@ -1410,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>113</v>
       </c>
@@ -1451,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>116</v>
       </c>
@@ -1492,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
@@ -1533,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>122</v>
       </c>
@@ -1574,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>141</v>
       </c>
@@ -1618,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>146</v>
       </c>
@@ -1662,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>150</v>
       </c>
@@ -1706,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>154</v>
       </c>
@@ -1750,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>158</v>
       </c>
@@ -1794,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>165</v>
       </c>
@@ -1805,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>99999</v>
+        <v>72000</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1823,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="2">
-        <v>99999</v>
+        <v>20</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>167</v>
@@ -1832,10 +1819,10 @@
         <v>109</v>
       </c>
       <c r="O21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1876,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1917,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1958,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1999,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
@@ -2040,7 +2027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2081,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
@@ -2122,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
@@ -2163,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
@@ -2204,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
@@ -2245,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
@@ -2286,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
@@ -2327,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>72</v>
       </c>
@@ -2368,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
@@ -2409,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
@@ -2450,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>82</v>
       </c>
@@ -2491,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>85</v>
       </c>
@@ -2532,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>88</v>
       </c>
@@ -2573,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
@@ -2614,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>94</v>
       </c>
@@ -2655,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>97</v>
       </c>
@@ -2696,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>100</v>
       </c>
@@ -2737,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>103</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55243AB4-BD50-4B5E-9A77-3B4D9D437555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0004D02C-BEC8-4DBC-9416-E33A150938E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,26 +995,26 @@
   <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="6" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" customWidth="1"/>
-    <col min="7" max="11" width="8.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
+    <col min="7" max="11" width="8.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="34" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.21875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1208,7 +1208,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>106</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>110</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>113</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>116</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>122</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>141</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>146</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>150</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>154</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>158</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>165</v>
       </c>
@@ -1819,10 +1819,10 @@
         <v>109</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>72</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>82</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>85</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>88</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>94</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>97</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>100</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>103</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0004D02C-BEC8-4DBC-9416-E33A150938E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172DFD14-0BEE-4E8A-AB06-4DB0EE82B897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
   <si>
     <t>##var</t>
   </si>
@@ -596,6 +596,21 @@
   </si>
   <si>
     <t>新手引导</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Offline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Offline</t>
+  </si>
+  <si>
+    <t>线下模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Offline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -992,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="F12" sqref="F12:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1332,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I8" s="2">
         <v>8</v>
@@ -1358,22 +1373,22 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I10" s="2">
         <v>8</v>
@@ -1385,77 +1400,36 @@
         <v>3</v>
       </c>
       <c r="L10" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>450</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>60</v>
-      </c>
-      <c r="I11" s="2">
-        <v>8</v>
-      </c>
-      <c r="J11" s="2">
-        <v>30</v>
-      </c>
-      <c r="K11" s="2">
-        <v>3</v>
-      </c>
-      <c r="L11" s="2">
-        <v>10</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I12" s="2">
         <v>8</v>
@@ -1469,11 +1443,11 @@
       <c r="L12" s="2">
         <v>10</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>117</v>
+      <c r="M12" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -1481,22 +1455,22 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I13" s="2">
         <v>8</v>
@@ -1511,10 +1485,10 @@
         <v>10</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -1522,22 +1496,22 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>720</v>
+        <v>250</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I14" s="2">
         <v>8</v>
@@ -1552,10 +1526,10 @@
         <v>10</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -1563,25 +1537,22 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>720</v>
+        <v>250</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I15" s="2">
         <v>8</v>
@@ -1596,10 +1567,10 @@
         <v>10</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -1607,25 +1578,22 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>720</v>
+        <v>250</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I16" s="2">
         <v>8</v>
@@ -1640,10 +1608,10 @@
         <v>10</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -1651,10 +1619,10 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>143</v>
@@ -1669,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I17" s="2">
         <v>8</v>
@@ -1684,10 +1652,10 @@
         <v>10</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -1695,10 +1663,10 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>143</v>
@@ -1713,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I18" s="2">
         <v>8</v>
@@ -1728,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -1739,10 +1707,10 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>143</v>
@@ -1757,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I19" s="2">
         <v>8</v>
@@ -1772,33 +1740,80 @@
         <v>10</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="O19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>720</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>120</v>
+      </c>
+      <c r="I20" s="2">
+        <v>8</v>
+      </c>
+      <c r="J20" s="2">
+        <v>30</v>
+      </c>
+      <c r="K20" s="2">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2">
+        <v>10</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>72000</v>
+        <v>720</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I21" s="2">
         <v>8</v>
@@ -1810,77 +1825,36 @@
         <v>3</v>
       </c>
       <c r="L21" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="O21" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>500</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>60</v>
-      </c>
-      <c r="I22" s="2">
-        <v>8</v>
-      </c>
-      <c r="J22" s="2">
-        <v>30</v>
-      </c>
-      <c r="K22" s="2">
-        <v>3</v>
-      </c>
-      <c r="L22" s="2">
-        <v>10</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="E23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>750</v>
+        <v>72000</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I23" s="2">
         <v>8</v>
@@ -1892,21 +1866,21 @@
         <v>3</v>
       </c>
       <c r="L23" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="O23" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>140</v>
@@ -1915,25 +1889,25 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I24" s="2">
+        <v>8</v>
+      </c>
+      <c r="J24" s="2">
+        <v>30</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3</v>
+      </c>
+      <c r="L24" s="2">
         <v>10</v>
-      </c>
-      <c r="J24" s="2">
-        <v>30</v>
-      </c>
-      <c r="K24" s="2">
-        <v>3</v>
-      </c>
-      <c r="L24" s="2">
-        <v>200</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>40</v>
@@ -1947,7 +1921,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>140</v>
@@ -1956,16 +1930,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>50000</v>
+        <v>750</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I25" s="2">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J25" s="2">
         <v>30</v>
@@ -1974,13 +1948,13 @@
         <v>3</v>
       </c>
       <c r="L25" s="2">
-        <v>99999</v>
+        <v>30</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -1988,7 +1962,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>140</v>
@@ -1997,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I26" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J26" s="2">
         <v>30</v>
@@ -2015,7 +1989,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>40</v>
@@ -2024,12 +1998,53 @@
         <v>41</v>
       </c>
       <c r="O26" s="2">
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>120</v>
+      </c>
+      <c r="I27" s="2">
+        <v>100</v>
+      </c>
+      <c r="J27" s="2">
+        <v>30</v>
+      </c>
+      <c r="K27" s="2">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2">
+        <v>99999</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>140</v>
@@ -2038,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>99999999</v>
+        <v>5000</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I28" s="2">
         <v>8</v>
@@ -2056,62 +2071,21 @@
         <v>3</v>
       </c>
       <c r="L28" s="2">
-        <v>99999999</v>
+        <v>10</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>50000</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>60</v>
-      </c>
-      <c r="I29" s="2">
-        <v>8</v>
-      </c>
-      <c r="J29" s="2">
-        <v>30</v>
-      </c>
-      <c r="K29" s="2">
-        <v>3</v>
-      </c>
-      <c r="L29" s="2">
         <v>20</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>140</v>
@@ -2120,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>500</v>
+        <v>99999999</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I30" s="2">
         <v>8</v>
@@ -2138,39 +2112,80 @@
         <v>3</v>
       </c>
       <c r="L30" s="2">
-        <v>10</v>
+        <v>99999999</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="O30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>120</v>
+      </c>
+      <c r="I31" s="2">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2">
+        <v>30</v>
+      </c>
+      <c r="K31" s="2">
+        <v>3</v>
+      </c>
+      <c r="L31" s="2">
+        <v>20</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J32" s="2">
         <v>30</v>
@@ -2179,77 +2194,36 @@
         <v>3</v>
       </c>
       <c r="L32" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="O32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>200</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>60</v>
-      </c>
-      <c r="I33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2">
-        <v>30</v>
-      </c>
-      <c r="K33" s="2">
-        <v>3</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
@@ -2264,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
@@ -2275,22 +2249,22 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
@@ -2305,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
@@ -2316,22 +2290,22 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
@@ -2346,10 +2320,10 @@
         <v>1</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
@@ -2357,25 +2331,25 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I37" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J37" s="2">
         <v>30</v>
@@ -2387,10 +2361,10 @@
         <v>1</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
@@ -2398,25 +2372,25 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" s="2">
         <v>30</v>
@@ -2428,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
@@ -2439,22 +2413,22 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>390</v>
+        <v>700</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I39" s="2">
         <v>3</v>
@@ -2469,10 +2443,10 @@
         <v>1</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
@@ -2480,22 +2454,22 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I40" s="2">
         <v>3</v>
@@ -2510,10 +2484,10 @@
         <v>1</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
@@ -2521,25 +2495,25 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="2">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I41" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J41" s="2">
         <v>30</v>
@@ -2551,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
@@ -2562,25 +2536,25 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I42" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J42" s="2">
         <v>30</v>
@@ -2592,10 +2566,10 @@
         <v>1</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
@@ -2603,22 +2577,22 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I43" s="2">
         <v>8</v>
@@ -2633,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O43" s="2">
         <v>0</v>
@@ -2644,10 +2618,10 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
@@ -2659,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I44" s="2">
         <v>8</v>
@@ -2674,10 +2648,10 @@
         <v>1</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O44" s="2">
         <v>0</v>
@@ -2685,22 +2659,22 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F45" s="2">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I45" s="2">
         <v>8</v>
@@ -2715,10 +2689,10 @@
         <v>1</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
@@ -2726,10 +2700,10 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
@@ -2741,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I46" s="2">
         <v>8</v>
@@ -2756,12 +2730,94 @@
         <v>1</v>
       </c>
       <c r="M46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>600</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>120</v>
+      </c>
+      <c r="I47" s="2">
+        <v>8</v>
+      </c>
+      <c r="J47" s="2">
+        <v>30</v>
+      </c>
+      <c r="K47" s="2">
+        <v>3</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>600</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>120</v>
+      </c>
+      <c r="I48" s="2">
+        <v>8</v>
+      </c>
+      <c r="J48" s="2">
+        <v>30</v>
+      </c>
+      <c r="K48" s="2">
+        <v>3</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O48" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172DFD14-0BEE-4E8A-AB06-4DB0EE82B897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583CFD6D-2ED4-46B1-ABB1-D7963B0903C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="237">
   <si>
     <t>##var</t>
   </si>
@@ -391,238 +391,551 @@
     <t>BuyTowerRefreshRule_ChallengeLevel14</t>
   </si>
   <si>
+    <t>TowerDefenseCfg_Level15</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_ChallengeLevel15</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_ChallengeLevel15</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Infinite</t>
+  </si>
+  <si>
+    <t>无限模式</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Infinite</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Infinite</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge1</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Challenge1</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Challenge1</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge2</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Challenge2</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Challenge2</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge3</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Challenge3</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Challenge3</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge4</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Challenge4</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Challenge4</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge5</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Challenge5</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Challenge5</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡1</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡2</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡3</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡4</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡5</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡6</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡7</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡8</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡9</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡10</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡11</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡12</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡13</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡14</t>
+  </si>
+  <si>
+    <t>（单卡教学）挑战关卡15</t>
+  </si>
+  <si>
+    <t>调试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge6</t>
+  </si>
+  <si>
+    <t>挑战关卡6</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Challenge6</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Challenge6</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge7</t>
+  </si>
+  <si>
+    <t>挑战关卡7</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Challenge7</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Challenge7</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge8</t>
+  </si>
+  <si>
+    <t>挑战关卡8</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Challenge8</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Challenge8</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge9</t>
+  </si>
+  <si>
+    <t>挑战关卡9</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Challenge9</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Challenge9</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge10</t>
+  </si>
+  <si>
+    <t>挑战关卡10</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Challenge10</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Challenge10</t>
+  </si>
+  <si>
+    <t>monsterWaveCallCreateActionIds</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=ActionCfg_ref_group</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷怪点刷怪生成时Action事件id（对应ActionConfig文件夹下表格）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Infinite_Test</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试-无限模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Infinite_Debug</t>
+  </si>
+  <si>
+    <t>新手引导</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Offline</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Offline</t>
+  </si>
+  <si>
+    <t>线下模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Offline</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_FirstInfinite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限模式-新手引导</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_FirstInfinite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge1</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge2</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge3</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge4</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Challenge5</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge1</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge2</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge3</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge4</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season2_Challenge5</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge1</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge2</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge3</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge4</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Challenge5</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge1</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge2</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge3</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge4</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Challenge5</t>
+  </si>
+  <si>
+    <r>
+      <t>赛季1关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>赛季1关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>赛季1关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>赛季1关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>赛季1关卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>赛季2关卡1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季2关卡2</t>
+  </si>
+  <si>
+    <t>赛季2关卡3</t>
+  </si>
+  <si>
+    <t>赛季2关卡4</t>
+  </si>
+  <si>
+    <t>赛季2关卡5</t>
+  </si>
+  <si>
+    <t>赛季3关卡1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季3关卡2</t>
+  </si>
+  <si>
+    <t>赛季3关卡3</t>
+  </si>
+  <si>
+    <t>赛季3关卡4</t>
+  </si>
+  <si>
+    <t>赛季3关卡5</t>
+  </si>
+  <si>
+    <t>赛季4关卡1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季4关卡2</t>
+  </si>
+  <si>
+    <t>赛季4关卡3</t>
+  </si>
+  <si>
+    <t>赛季4关卡4</t>
+  </si>
+  <si>
+    <t>赛季4关卡5</t>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Common</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>MonsterWaveCallRule_ChallengeLevel14</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level15</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel15</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel15</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Infinite</t>
-  </si>
-  <si>
-    <t>无限模式</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Infinite</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Infinite</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Challenge1</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge1</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge1</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Challenge2</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge2</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge2</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Challenge3</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge3</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge3</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Challenge4</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge4</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge4</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Challenge5</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge5</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge5</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡1</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡2</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡3</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡4</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡5</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡6</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡7</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡8</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡9</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡10</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡11</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡12</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡13</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡14</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡15</t>
-  </si>
-  <si>
-    <t>调试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Challenge6</t>
-  </si>
-  <si>
-    <t>挑战关卡6</t>
-  </si>
-  <si>
-    <t>活动</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge6</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge6</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Challenge7</t>
-  </si>
-  <si>
-    <t>挑战关卡7</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge7</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge7</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Challenge8</t>
-  </si>
-  <si>
-    <t>挑战关卡8</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge8</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge8</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Challenge9</t>
-  </si>
-  <si>
-    <t>挑战关卡9</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge9</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge9</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Challenge10</t>
-  </si>
-  <si>
-    <t>挑战关卡10</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge10</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge10</t>
-  </si>
-  <si>
-    <t>monsterWaveCallCreateActionIds</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;),string#ref=ActionCfg_ref_group</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷怪点刷怪生成时Action事件id（对应ActionConfig文件夹下表格）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Infinite_Test</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试-无限模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Infinite_Debug</t>
-  </si>
-  <si>
-    <t>新手引导</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Offline</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Offline</t>
-  </si>
-  <si>
-    <t>线下模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Offline</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season1_Challenge1</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season1_Challenge2</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season1_Challenge3</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season1_Challenge4</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season1_Challenge5</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season2_Challenge1</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season2_Challenge2</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season2_Challenge3</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season2_Challenge4</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season2_Challenge5</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season3_Challenge1</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season3_Challenge2</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season3_Challenge3</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season3_Challenge4</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season3_Challenge5</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Challenge1</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Challenge2</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Challenge3</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Challenge4</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Challenge5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,6 +968,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -703,31 +1023,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1007,16 +1330,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AC70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F21"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="N51" sqref="N51:N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="6" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
@@ -1076,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -1172,7 +1498,7 @@
         <v>18</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1270,7 +1596,7 @@
         <v>38</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1291,7 +1617,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -1309,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K6" s="2">
         <v>3</v>
@@ -1332,151 +1658,151 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>600</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>180</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="N8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>450</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>180</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>40</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>720</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>120</v>
-      </c>
-      <c r="I8" s="2">
-        <v>8</v>
-      </c>
-      <c r="J8" s="2">
-        <v>30</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>180</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>20</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>720</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>120</v>
-      </c>
-      <c r="I10" s="2">
-        <v>8</v>
-      </c>
-      <c r="J10" s="2">
-        <v>30</v>
-      </c>
-      <c r="K10" s="2">
-        <v>3</v>
-      </c>
-      <c r="L10" s="2">
-        <v>20</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>250</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>120</v>
-      </c>
-      <c r="I12" s="2">
-        <v>8</v>
-      </c>
-      <c r="J12" s="2">
-        <v>30</v>
-      </c>
-      <c r="K12" s="2">
-        <v>3</v>
-      </c>
-      <c r="L12" s="2">
-        <v>10</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="O11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I13" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K13" s="2">
         <v>3</v>
@@ -1484,11 +1810,11 @@
       <c r="L13" s="2">
         <v>10</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>114</v>
+      <c r="M13" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -1496,28 +1822,28 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I14" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J14" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2">
         <v>3</v>
@@ -1526,10 +1852,10 @@
         <v>10</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -1537,28 +1863,28 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I15" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J15" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15" s="2">
         <v>3</v>
@@ -1567,10 +1893,10 @@
         <v>10</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -1578,28 +1904,28 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I16" s="2">
         <v>8</v>
       </c>
       <c r="J16" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K16" s="2">
         <v>3</v>
@@ -1608,10 +1934,10 @@
         <v>10</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -1619,31 +1945,28 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I17" s="2">
         <v>8</v>
       </c>
       <c r="J17" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2">
         <v>3</v>
@@ -1652,10 +1975,10 @@
         <v>10</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -1663,13 +1986,13 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
@@ -1681,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I18" s="2">
         <v>8</v>
       </c>
       <c r="J18" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K18" s="2">
         <v>3</v>
@@ -1696,10 +2019,10 @@
         <v>10</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -1707,13 +2030,13 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
@@ -1725,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I19" s="2">
         <v>8</v>
       </c>
       <c r="J19" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K19" s="2">
         <v>3</v>
@@ -1740,10 +2063,10 @@
         <v>10</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -1751,13 +2074,13 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
@@ -1769,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I20" s="2">
         <v>8</v>
       </c>
       <c r="J20" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K20" s="2">
         <v>3</v>
@@ -1784,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -1795,13 +2118,13 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
@@ -1813,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I21" s="2">
         <v>8</v>
       </c>
       <c r="J21" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K21" s="2">
         <v>3</v>
@@ -1828,92 +2151,96 @@
         <v>10</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>720</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>180</v>
+      </c>
+      <c r="I22" s="2">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2">
+        <v>3</v>
+      </c>
+      <c r="L22" s="2">
+        <v>10</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>72000</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>120</v>
-      </c>
-      <c r="I23" s="2">
-        <v>8</v>
-      </c>
-      <c r="J23" s="2">
-        <v>30</v>
-      </c>
-      <c r="K23" s="2">
-        <v>3</v>
-      </c>
-      <c r="L23" s="2">
-        <v>20</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O23" s="2">
-        <v>7</v>
+      <c r="O22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>500</v>
+        <f>(O24)*720+720</f>
+        <v>720</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I24" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J24" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K24" s="2">
         <v>3</v>
       </c>
       <c r="L24" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -1921,37 +2248,37 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I25" s="2">
         <v>8</v>
       </c>
       <c r="J25" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K25" s="2">
         <v>3</v>
       </c>
       <c r="L25" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>41</v>
@@ -1962,37 +2289,37 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I26" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J26" s="2">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2">
+        <v>3</v>
+      </c>
+      <c r="L26" s="2">
         <v>30</v>
       </c>
-      <c r="K26" s="2">
-        <v>3</v>
-      </c>
-      <c r="L26" s="2">
-        <v>200</v>
-      </c>
       <c r="M26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>41</v>
@@ -2003,40 +2330,40 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I27" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J27" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K27" s="2">
         <v>3</v>
       </c>
       <c r="L27" s="2">
-        <v>99999</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
@@ -2044,122 +2371,122 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>180</v>
+      </c>
+      <c r="I28" s="2">
+        <v>100</v>
+      </c>
+      <c r="J28" s="2">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2">
+        <v>3</v>
+      </c>
+      <c r="L28" s="2">
+        <v>99999</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="C29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
         <v>5000</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>120</v>
-      </c>
-      <c r="I28" s="2">
-        <v>8</v>
-      </c>
-      <c r="J28" s="2">
-        <v>30</v>
-      </c>
-      <c r="K28" s="2">
-        <v>3</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>180</v>
+      </c>
+      <c r="I29" s="2">
+        <v>8</v>
+      </c>
+      <c r="J29" s="2">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2">
+        <v>3</v>
+      </c>
+      <c r="L29" s="2">
         <v>10</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>99999999</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>120</v>
-      </c>
-      <c r="I30" s="2">
-        <v>8</v>
-      </c>
-      <c r="J30" s="2">
-        <v>30</v>
-      </c>
-      <c r="K30" s="2">
-        <v>3</v>
-      </c>
-      <c r="L30" s="2">
-        <v>99999999</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
+      <c r="O29" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>50000</v>
+        <v>99999999</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I31" s="2">
         <v>8</v>
       </c>
       <c r="J31" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K31" s="2">
         <v>3</v>
       </c>
       <c r="L31" s="2">
-        <v>20</v>
+        <v>99999999</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O31" s="2">
         <v>0</v>
@@ -2167,110 +2494,110 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I32" s="2">
         <v>8</v>
       </c>
       <c r="J32" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K32" s="2">
         <v>3</v>
       </c>
       <c r="L32" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>500</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>180</v>
+      </c>
+      <c r="I33" s="2">
+        <v>8</v>
+      </c>
+      <c r="J33" s="2">
+        <v>20</v>
+      </c>
+      <c r="K33" s="2">
+        <v>3</v>
+      </c>
+      <c r="L33" s="2">
+        <v>10</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>600</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>120</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2">
-        <v>30</v>
-      </c>
-      <c r="K34" s="2">
-        <v>3</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O34" s="2">
+      <c r="O33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E35" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K35" s="2">
         <v>3</v>
@@ -2279,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
@@ -2290,28 +2617,28 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K36" s="2">
         <v>3</v>
@@ -2320,10 +2647,10 @@
         <v>1</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
@@ -2331,28 +2658,28 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K37" s="2">
         <v>3</v>
@@ -2361,10 +2688,10 @@
         <v>1</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O37" s="2">
         <v>0</v>
@@ -2372,28 +2699,28 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K38" s="2">
         <v>3</v>
@@ -2402,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
@@ -2413,28 +2740,28 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I39" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K39" s="2">
         <v>3</v>
@@ -2443,10 +2770,10 @@
         <v>1</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
@@ -2454,28 +2781,28 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I40" s="2">
         <v>3</v>
       </c>
       <c r="J40" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K40" s="2">
         <v>3</v>
@@ -2484,10 +2811,10 @@
         <v>1</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O40" s="2">
         <v>0</v>
@@ -2495,28 +2822,28 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F41" s="2">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I41" s="2">
         <v>3</v>
       </c>
       <c r="J41" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K41" s="2">
         <v>3</v>
@@ -2525,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
@@ -2536,28 +2863,28 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>560</v>
+        <v>390</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I42" s="2">
         <v>3</v>
       </c>
       <c r="J42" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K42" s="2">
         <v>3</v>
@@ -2566,10 +2893,10 @@
         <v>1</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
@@ -2577,28 +2904,28 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I43" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J43" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K43" s="2">
         <v>3</v>
@@ -2607,10 +2934,10 @@
         <v>1</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O43" s="2">
         <v>0</v>
@@ -2618,10 +2945,10 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
@@ -2633,13 +2960,13 @@
         <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I44" s="2">
         <v>8</v>
       </c>
       <c r="J44" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K44" s="2">
         <v>3</v>
@@ -2648,10 +2975,10 @@
         <v>1</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O44" s="2">
         <v>0</v>
@@ -2659,28 +2986,28 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F45" s="2">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I45" s="2">
         <v>8</v>
       </c>
       <c r="J45" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K45" s="2">
         <v>3</v>
@@ -2689,10 +3016,10 @@
         <v>1</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
@@ -2700,28 +3027,28 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I46" s="2">
         <v>8</v>
       </c>
       <c r="J46" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K46" s="2">
         <v>3</v>
@@ -2730,10 +3057,10 @@
         <v>1</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
@@ -2741,10 +3068,10 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
@@ -2756,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I47" s="2">
         <v>8</v>
       </c>
       <c r="J47" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K47" s="2">
         <v>3</v>
@@ -2771,10 +3098,10 @@
         <v>1</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O47" s="2">
         <v>0</v>
@@ -2782,10 +3109,10 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
@@ -2797,13 +3124,13 @@
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I48" s="2">
         <v>8</v>
       </c>
       <c r="J48" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K48" s="2">
         <v>3</v>
@@ -2812,17 +3139,878 @@
         <v>1</v>
       </c>
       <c r="M48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>600</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>180</v>
+      </c>
+      <c r="I49" s="2">
+        <v>8</v>
+      </c>
+      <c r="J49" s="2">
+        <v>20</v>
+      </c>
+      <c r="K49" s="2">
+        <v>3</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O48" s="2">
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>600</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>180</v>
+      </c>
+      <c r="I51" s="2">
+        <v>8</v>
+      </c>
+      <c r="J51" s="2">
+        <v>20</v>
+      </c>
+      <c r="K51" s="2">
+        <v>3</v>
+      </c>
+      <c r="L51" s="2">
+        <v>10</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>600</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>180</v>
+      </c>
+      <c r="I52" s="2">
+        <v>8</v>
+      </c>
+      <c r="J52" s="2">
+        <v>20</v>
+      </c>
+      <c r="K52" s="2">
+        <v>3</v>
+      </c>
+      <c r="L52" s="2">
+        <v>10</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>600</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>180</v>
+      </c>
+      <c r="I53" s="2">
+        <v>8</v>
+      </c>
+      <c r="J53" s="2">
+        <v>20</v>
+      </c>
+      <c r="K53" s="2">
+        <v>3</v>
+      </c>
+      <c r="L53" s="2">
+        <v>10</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>600</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>180</v>
+      </c>
+      <c r="I54" s="2">
+        <v>8</v>
+      </c>
+      <c r="J54" s="2">
+        <v>20</v>
+      </c>
+      <c r="K54" s="2">
+        <v>3</v>
+      </c>
+      <c r="L54" s="2">
+        <v>10</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>600</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>180</v>
+      </c>
+      <c r="I55" s="2">
+        <v>8</v>
+      </c>
+      <c r="J55" s="2">
+        <v>20</v>
+      </c>
+      <c r="K55" s="2">
+        <v>3</v>
+      </c>
+      <c r="L55" s="2">
+        <v>10</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>600</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>180</v>
+      </c>
+      <c r="I56" s="2">
+        <v>8</v>
+      </c>
+      <c r="J56" s="2">
+        <v>20</v>
+      </c>
+      <c r="K56" s="2">
+        <v>3</v>
+      </c>
+      <c r="L56" s="2">
+        <v>10</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>600</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>180</v>
+      </c>
+      <c r="I57" s="2">
+        <v>8</v>
+      </c>
+      <c r="J57" s="2">
+        <v>20</v>
+      </c>
+      <c r="K57" s="2">
+        <v>3</v>
+      </c>
+      <c r="L57" s="2">
+        <v>10</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>600</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>180</v>
+      </c>
+      <c r="I58" s="2">
+        <v>8</v>
+      </c>
+      <c r="J58" s="2">
+        <v>20</v>
+      </c>
+      <c r="K58" s="2">
+        <v>3</v>
+      </c>
+      <c r="L58" s="2">
+        <v>10</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>600</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>180</v>
+      </c>
+      <c r="I59" s="2">
+        <v>8</v>
+      </c>
+      <c r="J59" s="2">
+        <v>20</v>
+      </c>
+      <c r="K59" s="2">
+        <v>3</v>
+      </c>
+      <c r="L59" s="2">
+        <v>10</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>600</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>180</v>
+      </c>
+      <c r="I60" s="2">
+        <v>8</v>
+      </c>
+      <c r="J60" s="2">
+        <v>20</v>
+      </c>
+      <c r="K60" s="2">
+        <v>3</v>
+      </c>
+      <c r="L60" s="2">
+        <v>10</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>600</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>180</v>
+      </c>
+      <c r="I61" s="2">
+        <v>8</v>
+      </c>
+      <c r="J61" s="2">
+        <v>20</v>
+      </c>
+      <c r="K61" s="2">
+        <v>3</v>
+      </c>
+      <c r="L61" s="2">
+        <v>10</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>600</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>180</v>
+      </c>
+      <c r="I62" s="2">
+        <v>8</v>
+      </c>
+      <c r="J62" s="2">
+        <v>20</v>
+      </c>
+      <c r="K62" s="2">
+        <v>3</v>
+      </c>
+      <c r="L62" s="2">
+        <v>10</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B63" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>600</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>180</v>
+      </c>
+      <c r="I63" s="2">
+        <v>8</v>
+      </c>
+      <c r="J63" s="2">
+        <v>20</v>
+      </c>
+      <c r="K63" s="2">
+        <v>3</v>
+      </c>
+      <c r="L63" s="2">
+        <v>10</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>600</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>180</v>
+      </c>
+      <c r="I64" s="2">
+        <v>8</v>
+      </c>
+      <c r="J64" s="2">
+        <v>20</v>
+      </c>
+      <c r="K64" s="2">
+        <v>3</v>
+      </c>
+      <c r="L64" s="2">
+        <v>10</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>600</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>180</v>
+      </c>
+      <c r="I65" s="2">
+        <v>8</v>
+      </c>
+      <c r="J65" s="2">
+        <v>20</v>
+      </c>
+      <c r="K65" s="2">
+        <v>3</v>
+      </c>
+      <c r="L65" s="2">
+        <v>10</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>600</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>180</v>
+      </c>
+      <c r="I66" s="2">
+        <v>8</v>
+      </c>
+      <c r="J66" s="2">
+        <v>20</v>
+      </c>
+      <c r="K66" s="2">
+        <v>3</v>
+      </c>
+      <c r="L66" s="2">
+        <v>10</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>600</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>180</v>
+      </c>
+      <c r="I67" s="2">
+        <v>8</v>
+      </c>
+      <c r="J67" s="2">
+        <v>20</v>
+      </c>
+      <c r="K67" s="2">
+        <v>3</v>
+      </c>
+      <c r="L67" s="2">
+        <v>10</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>600</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>180</v>
+      </c>
+      <c r="I68" s="2">
+        <v>8</v>
+      </c>
+      <c r="J68" s="2">
+        <v>20</v>
+      </c>
+      <c r="K68" s="2">
+        <v>3</v>
+      </c>
+      <c r="L68" s="2">
+        <v>10</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>600</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>180</v>
+      </c>
+      <c r="I69" s="2">
+        <v>8</v>
+      </c>
+      <c r="J69" s="2">
+        <v>20</v>
+      </c>
+      <c r="K69" s="2">
+        <v>3</v>
+      </c>
+      <c r="L69" s="2">
+        <v>10</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>600</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>180</v>
+      </c>
+      <c r="I70" s="2">
+        <v>8</v>
+      </c>
+      <c r="J70" s="2">
+        <v>20</v>
+      </c>
+      <c r="K70" s="2">
+        <v>3</v>
+      </c>
+      <c r="L70" s="2">
+        <v>10</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="O70" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583CFD6D-2ED4-46B1-ABB1-D7963B0903C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C1FBA3-037A-4C00-BE8E-5FB510C6BB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="185">
   <si>
     <t>##var</t>
   </si>
@@ -208,9 +208,6 @@
     <t>BuyTowerRefreshRule_1</t>
   </si>
   <si>
-    <t>MonsterWaveCallRule_1</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg2</t>
   </si>
   <si>
@@ -226,180 +223,39 @@
     <t>BuyTowerRefreshRule_TutorialFirst</t>
   </si>
   <si>
-    <t>MonsterWaveCallRule_TutorialFirst</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_testZpb</t>
   </si>
   <si>
     <t>BuyTowerRefreshRule_Zpb1</t>
   </si>
   <si>
-    <t>MonsterWaveCallRule_test1</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_ForVideo</t>
   </si>
   <si>
     <t>TowerDefenseCfg_TATest</t>
   </si>
   <si>
-    <t>MonsterWaveCallRule_TATest</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_test11</t>
   </si>
   <si>
     <t>TowerDefenseCfgTest</t>
   </si>
   <si>
-    <t>TowerDefenseCfg_Level1</t>
-  </si>
-  <si>
     <t>挑战关卡1</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel1</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel1</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level2</t>
-  </si>
-  <si>
     <t>挑战关卡2</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel2</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel2</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level3</t>
-  </si>
-  <si>
     <t>挑战关卡3</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel3</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel3</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level4</t>
-  </si>
-  <si>
     <t>挑战关卡4</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel4</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel4</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level5</t>
-  </si>
-  <si>
     <t>挑战关卡5</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel5</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel5</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level6</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel6</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel6</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level7</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel7</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel7</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level8</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel8</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel8</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level9</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel9</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel9</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level10</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel10</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel10</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level11</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel11</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel11</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level12</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel12</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel12</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level13</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel13</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel13</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level14</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel14</t>
-  </si>
-  <si>
-    <t>TowerDefenseCfg_Level15</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_ChallengeLevel15</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_ChallengeLevel15</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Infinite</t>
   </si>
   <si>
@@ -409,9 +265,6 @@
     <t>BuyTowerRefreshRule_Infinite</t>
   </si>
   <si>
-    <t>MonsterWaveCallRule_Infinite</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Challenge1</t>
   </si>
   <si>
@@ -455,51 +308,6 @@
   </si>
   <si>
     <t>MonsterWaveCallRule_Challenge5</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡1</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡2</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡3</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡4</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡5</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡6</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡7</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡8</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡9</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡10</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡11</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡12</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡13</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡14</t>
-  </si>
-  <si>
-    <t>（单卡教学）挑战关卡15</t>
   </si>
   <si>
     <t>调试</t>
@@ -510,9 +318,6 @@
   </si>
   <si>
     <t>挑战关卡6</t>
-  </si>
-  <si>
-    <t>活动</t>
   </si>
   <si>
     <t>BuyTowerRefreshRule_Challenge6</t>
@@ -855,68 +660,109 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterWaveCallRule_ChallengeLevel14</t>
+    <t>MonsterWaveCallRule_Season1_Challenge1</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season1_Challenge2</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season1_Challenge3</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season1_Challenge4</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season1_Challenge5</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season2_Challenge1</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season2_Challenge2</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season2_Challenge3</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season2_Challenge4</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season2_Challenge5</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season3_Challenge1</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season3_Challenge2</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season3_Challenge3</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season3_Challenge4</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season3_Challenge5</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Challenge1</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Challenge2</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Challenge3</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Challenge4</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Challenge5</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season1_Infinite</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterWaveCallRule_Season1_Challenge1</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season1_Challenge2</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season1_Challenge3</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season1_Challenge4</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season1_Challenge5</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season2_Challenge1</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season2_Challenge2</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season2_Challenge3</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season2_Challenge4</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season2_Challenge5</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season3_Challenge1</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season3_Challenge2</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season3_Challenge3</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season3_Challenge4</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season3_Challenge5</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season4_Challenge1</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season4_Challenge2</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season4_Challenge3</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season4_Challenge4</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Season4_Challenge5</t>
+    <t>TowerDefenseCfg_Season2_Infinite</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season3_Infinite</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Season4_Infinite</t>
+  </si>
+  <si>
+    <t>赛季1无限关卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季2无限关卡</t>
+  </si>
+  <si>
+    <t>赛季3无限关卡</t>
+  </si>
+  <si>
+    <t>赛季4无限关卡</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season1_Infinite</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season2_Infinite</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season3_Infinite</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Infinite</t>
+  </si>
+  <si>
+    <t>isAutoRefreshBuyTower</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否每回合自动刷新玩家刷新可购买塔</t>
   </si>
 </sst>
 </file>
@@ -1330,13 +1176,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:AD60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="F45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N51" sqref="N51:N70"/>
+      <selection pane="bottomRight" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1347,15 +1193,15 @@
     <col min="4" max="4" width="6" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
-    <col min="7" max="11" width="8.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="34" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.25" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="7" max="12" width="8.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="34" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,24 +1233,26 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1417,8 +1265,9 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1286,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="1"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -1450,8 +1299,9 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1483,24 +1333,26 @@
         <v>18</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1513,8 +1365,9 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1535,7 +1388,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1548,8 +1401,9 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1581,24 +1435,26 @@
         <v>33</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1611,63 +1467,67 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>9999</v>
+        <v>180</v>
       </c>
       <c r="I6" s="2">
         <v>8</v>
       </c>
       <c r="J6" s="2">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1679,36 +1539,39 @@
         <v>10</v>
       </c>
       <c r="J8" s="2">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
         <v>20</v>
       </c>
-      <c r="K8" s="2">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1720,30 +1583,33 @@
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2">
         <v>40</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="N9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -1761,36 +1627,39 @@
         <v>8</v>
       </c>
       <c r="J11" s="2">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
         <v>20</v>
       </c>
-      <c r="K11" s="2">
-        <v>3</v>
-      </c>
-      <c r="L11" s="2">
-        <v>20</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="N11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1802,36 +1671,39 @@
         <v>4</v>
       </c>
       <c r="J13" s="2">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>10</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>50</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1843,36 +1715,39 @@
         <v>4</v>
       </c>
       <c r="J14" s="2">
-        <v>20</v>
-      </c>
-      <c r="K14" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>10</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>113</v>
+        <v>3</v>
+      </c>
+      <c r="M14" s="2">
+        <v>40</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1881,39 +1756,42 @@
         <v>180</v>
       </c>
       <c r="I15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>10</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>116</v>
+        <v>3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1922,39 +1800,42 @@
         <v>180</v>
       </c>
       <c r="I16" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J16" s="2">
-        <v>20</v>
-      </c>
-      <c r="K16" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>10</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>119</v>
+        <v>3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1966,39 +1847,39 @@
         <v>8</v>
       </c>
       <c r="J17" s="2">
+        <v>30</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3</v>
+      </c>
+      <c r="M17" s="2">
         <v>20</v>
       </c>
-      <c r="K17" s="2">
-        <v>3</v>
-      </c>
-      <c r="L17" s="2">
-        <v>10</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="N17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -2010,39 +1891,39 @@
         <v>8</v>
       </c>
       <c r="J18" s="2">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2">
         <v>20</v>
       </c>
-      <c r="K18" s="2">
-        <v>3</v>
-      </c>
-      <c r="L18" s="2">
-        <v>10</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="N18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -2054,39 +1935,39 @@
         <v>8</v>
       </c>
       <c r="J19" s="2">
-        <v>20</v>
-      </c>
-      <c r="K19" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>10</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>147</v>
+        <v>3</v>
+      </c>
+      <c r="M19" s="2">
+        <v>15</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -2098,39 +1979,39 @@
         <v>8</v>
       </c>
       <c r="J20" s="2">
-        <v>20</v>
-      </c>
-      <c r="K20" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>10</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>151</v>
+        <v>3</v>
+      </c>
+      <c r="M20" s="2">
+        <v>15</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -2142,39 +2023,39 @@
         <v>8</v>
       </c>
       <c r="J21" s="2">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L21" s="2">
+        <v>3</v>
+      </c>
+      <c r="M21" s="2">
         <v>10</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="N21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -2183,40 +2064,42 @@
         <v>180</v>
       </c>
       <c r="I22" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J22" s="2">
-        <v>20</v>
-      </c>
-      <c r="K22" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L22" s="2">
+        <v>3</v>
+      </c>
+      <c r="M22" s="2">
         <v>10</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="N22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="E24" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <f>(O24)*720+720</f>
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
@@ -2228,30 +2111,33 @@
         <v>10</v>
       </c>
       <c r="J24" s="2">
+        <v>30</v>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>3</v>
+      </c>
+      <c r="M24" s="2">
         <v>20</v>
       </c>
-      <c r="K24" s="2">
-        <v>3</v>
-      </c>
-      <c r="L24" s="2">
-        <v>20</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="N24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
@@ -2269,30 +2155,33 @@
         <v>8</v>
       </c>
       <c r="J25" s="2">
-        <v>20</v>
-      </c>
-      <c r="K25" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L25" s="2">
+        <v>3</v>
+      </c>
+      <c r="M25" s="2">
         <v>10</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
@@ -2310,30 +2199,33 @@
         <v>8</v>
       </c>
       <c r="J26" s="2">
-        <v>20</v>
-      </c>
-      <c r="K26" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>30</v>
-      </c>
-      <c r="M26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="2">
+        <v>30</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
@@ -2351,30 +2243,33 @@
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <v>20</v>
-      </c>
-      <c r="K27" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L27" s="2">
+        <v>3</v>
+      </c>
+      <c r="M27" s="2">
         <v>200</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
@@ -2392,30 +2287,33 @@
         <v>100</v>
       </c>
       <c r="J28" s="2">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L28" s="2">
+        <v>3</v>
+      </c>
+      <c r="M28" s="2">
         <v>99999</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="N28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2" t="b">
         <v>0</v>
@@ -2433,30 +2331,33 @@
         <v>8</v>
       </c>
       <c r="J29" s="2">
+        <v>30</v>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>3</v>
+      </c>
+      <c r="M29" s="2">
+        <v>10</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="2">
         <v>20</v>
       </c>
-      <c r="K29" s="2">
-        <v>3</v>
-      </c>
-      <c r="L29" s="2">
-        <v>10</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O29" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
@@ -2474,30 +2375,33 @@
         <v>8</v>
       </c>
       <c r="J31" s="2">
-        <v>20</v>
-      </c>
-      <c r="K31" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L31" s="2">
+        <v>3</v>
+      </c>
+      <c r="M31" s="2">
         <v>99999999</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
@@ -2515,30 +2419,33 @@
         <v>8</v>
       </c>
       <c r="J32" s="2">
+        <v>30</v>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3</v>
+      </c>
+      <c r="M32" s="2">
         <v>20</v>
       </c>
-      <c r="K32" s="2">
-        <v>3</v>
-      </c>
-      <c r="L32" s="2">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
@@ -2556,364 +2463,347 @@
         <v>8</v>
       </c>
       <c r="J33" s="2">
+        <v>30</v>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>3</v>
+      </c>
+      <c r="M33" s="2">
+        <v>10</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>300</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>180</v>
+      </c>
+      <c r="I36" s="2">
+        <v>8</v>
+      </c>
+      <c r="J36" s="2">
+        <v>30</v>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>3</v>
+      </c>
+      <c r="M36" s="2">
         <v>20</v>
       </c>
-      <c r="K33" s="2">
-        <v>3</v>
-      </c>
-      <c r="L33" s="2">
+      <c r="N36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>300</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>180</v>
+      </c>
+      <c r="I37" s="2">
+        <v>8</v>
+      </c>
+      <c r="J37" s="2">
+        <v>30</v>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>3</v>
+      </c>
+      <c r="M37" s="2">
+        <v>20</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>300</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>180</v>
+      </c>
+      <c r="I38" s="2">
+        <v>8</v>
+      </c>
+      <c r="J38" s="2">
+        <v>30</v>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2">
+        <v>15</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>300</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>180</v>
+      </c>
+      <c r="I39" s="2">
+        <v>8</v>
+      </c>
+      <c r="J39" s="2">
+        <v>30</v>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>3</v>
+      </c>
+      <c r="M39" s="2">
+        <v>15</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>300</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>180</v>
+      </c>
+      <c r="I40" s="2">
+        <v>8</v>
+      </c>
+      <c r="J40" s="2">
+        <v>30</v>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>3</v>
+      </c>
+      <c r="M40" s="2">
         <v>10</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>600</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>180</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="N40" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>300</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>180</v>
+      </c>
+      <c r="I41" s="2">
+        <v>8</v>
+      </c>
+      <c r="J41" s="2">
+        <v>30</v>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>3</v>
+      </c>
+      <c r="M41" s="2">
         <v>20</v>
       </c>
-      <c r="K35" s="2">
-        <v>3</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>200</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>180</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="N41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>300</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>180</v>
+      </c>
+      <c r="I42" s="2">
+        <v>8</v>
+      </c>
+      <c r="J42" s="2">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>3</v>
+      </c>
+      <c r="M42" s="2">
         <v>20</v>
       </c>
-      <c r="K36" s="2">
-        <v>3</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>500</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>180</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1</v>
-      </c>
-      <c r="J37" s="2">
-        <v>20</v>
-      </c>
-      <c r="K37" s="2">
-        <v>3</v>
-      </c>
-      <c r="L37" s="2">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>300</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>180</v>
-      </c>
-      <c r="I38" s="2">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2">
-        <v>20</v>
-      </c>
-      <c r="K38" s="2">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>200</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>180</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2">
-        <v>20</v>
-      </c>
-      <c r="K39" s="2">
-        <v>3</v>
-      </c>
-      <c r="L39" s="2">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>700</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>180</v>
-      </c>
-      <c r="I40" s="2">
-        <v>3</v>
-      </c>
-      <c r="J40" s="2">
-        <v>20</v>
-      </c>
-      <c r="K40" s="2">
-        <v>3</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>550</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>180</v>
-      </c>
-      <c r="I41" s="2">
-        <v>3</v>
-      </c>
-      <c r="J41" s="2">
-        <v>20</v>
-      </c>
-      <c r="K41" s="2">
-        <v>3</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>390</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>180</v>
-      </c>
-      <c r="I42" s="2">
-        <v>3</v>
-      </c>
-      <c r="J42" s="2">
-        <v>20</v>
-      </c>
-      <c r="K42" s="2">
-        <v>3</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>132</v>
+      <c r="N42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="G43" s="2">
         <v>0</v>
@@ -2922,39 +2812,42 @@
         <v>180</v>
       </c>
       <c r="I43" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J43" s="2">
-        <v>20</v>
-      </c>
-      <c r="K43" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L43" s="2">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="M43" s="2">
+        <v>15</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F44" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G44" s="2">
         <v>0</v>
@@ -2966,36 +2859,39 @@
         <v>8</v>
       </c>
       <c r="J44" s="2">
-        <v>20</v>
-      </c>
-      <c r="K44" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L44" s="2">
-        <v>1</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>134</v>
+        <v>3</v>
+      </c>
+      <c r="M44" s="2">
+        <v>15</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F45" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -3007,36 +2903,39 @@
         <v>8</v>
       </c>
       <c r="J45" s="2">
-        <v>20</v>
-      </c>
-      <c r="K45" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L45" s="2">
-        <v>1</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>135</v>
+        <v>3</v>
+      </c>
+      <c r="M45" s="2">
+        <v>10</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="G46" s="2">
         <v>0</v>
@@ -3048,36 +2947,39 @@
         <v>8</v>
       </c>
       <c r="J46" s="2">
+        <v>30</v>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>3</v>
+      </c>
+      <c r="M46" s="2">
         <v>20</v>
       </c>
-      <c r="K46" s="2">
-        <v>3</v>
-      </c>
-      <c r="L46" s="2">
-        <v>1</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>136</v>
+      <c r="N46" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F47" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G47" s="2">
         <v>0</v>
@@ -3089,36 +2991,39 @@
         <v>8</v>
       </c>
       <c r="J47" s="2">
+        <v>30</v>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>3</v>
+      </c>
+      <c r="M47" s="2">
         <v>20</v>
       </c>
-      <c r="K47" s="2">
-        <v>3</v>
-      </c>
-      <c r="L47" s="2">
-        <v>1</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>137</v>
+      <c r="N47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F48" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G48" s="2">
         <v>0</v>
@@ -3130,36 +3035,39 @@
         <v>8</v>
       </c>
       <c r="J48" s="2">
-        <v>20</v>
-      </c>
-      <c r="K48" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L48" s="2">
-        <v>1</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>101</v>
+        <v>3</v>
+      </c>
+      <c r="M48" s="2">
+        <v>15</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F49" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
@@ -3171,36 +3079,83 @@
         <v>8</v>
       </c>
       <c r="J49" s="2">
-        <v>20</v>
-      </c>
-      <c r="K49" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L49" s="2">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="M49" s="2">
+        <v>15</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>300</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>180</v>
+      </c>
+      <c r="I50" s="2">
+        <v>8</v>
+      </c>
+      <c r="J50" s="2">
+        <v>30</v>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>3</v>
+      </c>
+      <c r="M50" s="2">
+        <v>10</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G51" s="2">
         <v>0</v>
@@ -3212,36 +3167,39 @@
         <v>8</v>
       </c>
       <c r="J51" s="2">
+        <v>30</v>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>3</v>
+      </c>
+      <c r="M51" s="2">
         <v>20</v>
       </c>
-      <c r="K51" s="2">
-        <v>3</v>
-      </c>
-      <c r="L51" s="2">
-        <v>10</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F52" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G52" s="2">
         <v>0</v>
@@ -3253,36 +3211,39 @@
         <v>8</v>
       </c>
       <c r="J52" s="2">
+        <v>30</v>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>3</v>
+      </c>
+      <c r="M52" s="2">
         <v>20</v>
       </c>
-      <c r="K52" s="2">
-        <v>3</v>
-      </c>
-      <c r="L52" s="2">
-        <v>10</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N52" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="O52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N52" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F53" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -3294,36 +3255,39 @@
         <v>8</v>
       </c>
       <c r="J53" s="2">
-        <v>20</v>
-      </c>
-      <c r="K53" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L53" s="2">
-        <v>10</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="M53" s="2">
+        <v>15</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F54" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G54" s="2">
         <v>0</v>
@@ -3335,36 +3299,39 @@
         <v>8</v>
       </c>
       <c r="J54" s="2">
-        <v>20</v>
-      </c>
-      <c r="K54" s="2">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="L54" s="2">
-        <v>10</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="M54" s="2">
+        <v>15</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F55" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G55" s="2">
         <v>0</v>
@@ -3376,636 +3343,200 @@
         <v>8</v>
       </c>
       <c r="J55" s="2">
+        <v>30</v>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>3</v>
+      </c>
+      <c r="M55" s="2">
+        <v>10</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>300</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>180</v>
+      </c>
+      <c r="I57" s="2">
+        <v>10</v>
+      </c>
+      <c r="J57" s="2">
+        <v>30</v>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2">
+        <v>3</v>
+      </c>
+      <c r="M57" s="2">
         <v>20</v>
       </c>
-      <c r="K55" s="2">
-        <v>3</v>
-      </c>
-      <c r="L55" s="2">
+      <c r="N57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>300</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>180</v>
+      </c>
+      <c r="I58" s="2">
         <v>10</v>
       </c>
-      <c r="M55" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>600</v>
-      </c>
-      <c r="G56" s="2">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
-        <v>180</v>
-      </c>
-      <c r="I56" s="2">
-        <v>8</v>
-      </c>
-      <c r="J56" s="2">
+      <c r="J58" s="2">
+        <v>30</v>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>3</v>
+      </c>
+      <c r="M58" s="2">
         <v>20</v>
       </c>
-      <c r="K56" s="2">
-        <v>3</v>
-      </c>
-      <c r="L56" s="2">
+      <c r="N58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B59" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>300</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>180</v>
+      </c>
+      <c r="I59" s="2">
         <v>10</v>
       </c>
-      <c r="M56" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="7" t="s">
+      <c r="J59" s="2">
+        <v>30</v>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>3</v>
+      </c>
+      <c r="M59" s="2">
+        <v>20</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O59" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <v>600</v>
-      </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <v>180</v>
-      </c>
-      <c r="I57" s="2">
-        <v>8</v>
-      </c>
-      <c r="J57" s="2">
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>300</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>180</v>
+      </c>
+      <c r="I60" s="2">
+        <v>10</v>
+      </c>
+      <c r="J60" s="2">
+        <v>30</v>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>3</v>
+      </c>
+      <c r="M60" s="2">
         <v>20</v>
       </c>
-      <c r="K57" s="2">
-        <v>3</v>
-      </c>
-      <c r="L57" s="2">
-        <v>10</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="7" t="s">
+      <c r="N60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2">
-        <v>600</v>
-      </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>180</v>
-      </c>
-      <c r="I58" s="2">
-        <v>8</v>
-      </c>
-      <c r="J58" s="2">
-        <v>20</v>
-      </c>
-      <c r="K58" s="2">
-        <v>3</v>
-      </c>
-      <c r="L58" s="2">
-        <v>10</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N58" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>600</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>180</v>
-      </c>
-      <c r="I59" s="2">
-        <v>8</v>
-      </c>
-      <c r="J59" s="2">
-        <v>20</v>
-      </c>
-      <c r="K59" s="2">
-        <v>3</v>
-      </c>
-      <c r="L59" s="2">
-        <v>10</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2">
-        <v>600</v>
-      </c>
-      <c r="G60" s="2">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2">
-        <v>180</v>
-      </c>
-      <c r="I60" s="2">
-        <v>8</v>
-      </c>
-      <c r="J60" s="2">
-        <v>20</v>
-      </c>
-      <c r="K60" s="2">
-        <v>3</v>
-      </c>
-      <c r="L60" s="2">
-        <v>10</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N60" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>600</v>
-      </c>
-      <c r="G61" s="2">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2">
-        <v>180</v>
-      </c>
-      <c r="I61" s="2">
-        <v>8</v>
-      </c>
-      <c r="J61" s="2">
-        <v>20</v>
-      </c>
-      <c r="K61" s="2">
-        <v>3</v>
-      </c>
-      <c r="L61" s="2">
-        <v>10</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="O61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2">
-        <v>600</v>
-      </c>
-      <c r="G62" s="2">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>180</v>
-      </c>
-      <c r="I62" s="2">
-        <v>8</v>
-      </c>
-      <c r="J62" s="2">
-        <v>20</v>
-      </c>
-      <c r="K62" s="2">
-        <v>3</v>
-      </c>
-      <c r="L62" s="2">
-        <v>10</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N62" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="O62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
-        <v>600</v>
-      </c>
-      <c r="G63" s="2">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
-        <v>180</v>
-      </c>
-      <c r="I63" s="2">
-        <v>8</v>
-      </c>
-      <c r="J63" s="2">
-        <v>20</v>
-      </c>
-      <c r="K63" s="2">
-        <v>3</v>
-      </c>
-      <c r="L63" s="2">
-        <v>10</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N63" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="O63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2">
-        <v>600</v>
-      </c>
-      <c r="G64" s="2">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2">
-        <v>180</v>
-      </c>
-      <c r="I64" s="2">
-        <v>8</v>
-      </c>
-      <c r="J64" s="2">
-        <v>20</v>
-      </c>
-      <c r="K64" s="2">
-        <v>3</v>
-      </c>
-      <c r="L64" s="2">
-        <v>10</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N64" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="O64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2">
-        <v>600</v>
-      </c>
-      <c r="G65" s="2">
-        <v>0</v>
-      </c>
-      <c r="H65" s="2">
-        <v>180</v>
-      </c>
-      <c r="I65" s="2">
-        <v>8</v>
-      </c>
-      <c r="J65" s="2">
-        <v>20</v>
-      </c>
-      <c r="K65" s="2">
-        <v>3</v>
-      </c>
-      <c r="L65" s="2">
-        <v>10</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="O65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="2">
-        <v>600</v>
-      </c>
-      <c r="G66" s="2">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>180</v>
-      </c>
-      <c r="I66" s="2">
-        <v>8</v>
-      </c>
-      <c r="J66" s="2">
-        <v>20</v>
-      </c>
-      <c r="K66" s="2">
-        <v>3</v>
-      </c>
-      <c r="L66" s="2">
-        <v>10</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="O66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2">
-        <v>600</v>
-      </c>
-      <c r="G67" s="2">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2">
-        <v>180</v>
-      </c>
-      <c r="I67" s="2">
-        <v>8</v>
-      </c>
-      <c r="J67" s="2">
-        <v>20</v>
-      </c>
-      <c r="K67" s="2">
-        <v>3</v>
-      </c>
-      <c r="L67" s="2">
-        <v>10</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2">
-        <v>600</v>
-      </c>
-      <c r="G68" s="2">
-        <v>0</v>
-      </c>
-      <c r="H68" s="2">
-        <v>180</v>
-      </c>
-      <c r="I68" s="2">
-        <v>8</v>
-      </c>
-      <c r="J68" s="2">
-        <v>20</v>
-      </c>
-      <c r="K68" s="2">
-        <v>3</v>
-      </c>
-      <c r="L68" s="2">
-        <v>10</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N68" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="O68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2">
-        <v>600</v>
-      </c>
-      <c r="G69" s="2">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2">
-        <v>180</v>
-      </c>
-      <c r="I69" s="2">
-        <v>8</v>
-      </c>
-      <c r="J69" s="2">
-        <v>20</v>
-      </c>
-      <c r="K69" s="2">
-        <v>3</v>
-      </c>
-      <c r="L69" s="2">
-        <v>10</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N69" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="O69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="2">
-        <v>600</v>
-      </c>
-      <c r="G70" s="2">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2">
-        <v>180</v>
-      </c>
-      <c r="I70" s="2">
-        <v>8</v>
-      </c>
-      <c r="J70" s="2">
-        <v>20</v>
-      </c>
-      <c r="K70" s="2">
-        <v>3</v>
-      </c>
-      <c r="L70" s="2">
-        <v>10</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N70" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="O70" s="2">
+      <c r="P60" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C1FBA3-037A-4C00-BE8E-5FB510C6BB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFEDEBE-F44F-4133-AE36-8D5D3A541900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="170">
   <si>
     <t>##var</t>
   </si>
@@ -205,30 +205,18 @@
     <t>TowerDefenseCfg1</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_1</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg2</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_PVP</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg3</t>
   </si>
   <si>
     <t>TowerDefenseCfgTutorialFirst</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_TutorialFirst</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_testZpb</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_Zpb1</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_ForVideo</t>
   </si>
   <si>
@@ -262,52 +250,22 @@
     <t>无限模式</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_Infinite</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Challenge1</t>
   </si>
   <si>
     <t>BuyTowerRefreshRule_Challenge1</t>
   </si>
   <si>
-    <t>MonsterWaveCallRule_Challenge1</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Challenge2</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_Challenge2</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge2</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Challenge3</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_Challenge3</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge3</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Challenge4</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_Challenge4</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge4</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Challenge5</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge5</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge5</t>
   </si>
   <si>
     <t>调试</t>
@@ -320,58 +278,28 @@
     <t>挑战关卡6</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_Challenge6</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge6</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Challenge7</t>
   </si>
   <si>
     <t>挑战关卡7</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_Challenge7</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge7</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Challenge8</t>
   </si>
   <si>
     <t>挑战关卡8</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_Challenge8</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge8</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Challenge9</t>
   </si>
   <si>
     <t>挑战关卡9</t>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_Challenge9</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge9</t>
-  </si>
-  <si>
     <t>TowerDefenseCfg_Challenge10</t>
   </si>
   <si>
     <t>挑战关卡10</t>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_Challenge10</t>
-  </si>
-  <si>
-    <t>MonsterWaveCallRule_Challenge10</t>
   </si>
   <si>
     <t>monsterWaveCallCreateActionIds</t>
@@ -394,9 +322,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>BuyTowerRefreshRule_Infinite_Debug</t>
-  </si>
-  <si>
     <t>新手引导</t>
   </si>
   <si>
@@ -420,10 +345,6 @@
   </si>
   <si>
     <t>无限模式-新手引导</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuyTowerRefreshRule_FirstInfinite</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -763,6 +684,54 @@
   </si>
   <si>
     <t>是否每回合自动刷新玩家刷新可购买塔</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge2</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge3</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge4</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge5</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge6</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge7</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge8</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge9</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge10</t>
+  </si>
+  <si>
+    <r>
+      <t>BuyTowerRefreshRule_Challenge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1179,10 +1148,10 @@
   <dimension ref="A1:AD60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M61" sqref="M61"/>
+      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1164,8 @@
     <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
     <col min="7" max="12" width="8.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="34" style="2" customWidth="1"/>
+    <col min="14" max="14" width="34" style="2" customWidth="1"/>
+    <col min="15" max="15" width="65.875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.25" style="2" customWidth="1"/>
     <col min="17" max="17" width="16.125" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
@@ -1233,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1251,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -1351,7 +1321,7 @@
         <v>18</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1435,7 +1405,7 @@
         <v>33</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>34</v>
@@ -1453,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -1471,10 +1441,10 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -1483,7 +1453,7 @@
         <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2">
         <v>180</v>
@@ -1503,11 +1473,11 @@
       <c r="M6" s="2">
         <v>50</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>62</v>
+      <c r="N6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -1518,10 +1488,10 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -1530,7 +1500,7 @@
         <v>300</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2">
         <v>180</v>
@@ -1550,11 +1520,11 @@
       <c r="M8" s="2">
         <v>20</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>59</v>
+      <c r="N8" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
@@ -1562,10 +1532,10 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>0</v>
@@ -1574,7 +1544,7 @@
         <v>300</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
         <v>180</v>
@@ -1595,10 +1565,10 @@
         <v>40</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
@@ -1606,10 +1576,10 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="b">
         <v>0</v>
@@ -1618,7 +1588,7 @@
         <v>720</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2">
         <v>180</v>
@@ -1639,65 +1609,21 @@
         <v>20</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>300</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>180</v>
-      </c>
-      <c r="I13" s="2">
-        <v>4</v>
-      </c>
-      <c r="J13" s="2">
-        <v>30</v>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>3</v>
-      </c>
-      <c r="M13" s="2">
-        <v>50</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="b">
         <v>0</v>
@@ -1706,13 +1632,13 @@
         <v>300</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" s="2">
         <v>180</v>
       </c>
       <c r="I14" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J14" s="2">
         <v>30</v>
@@ -1724,13 +1650,13 @@
         <v>3</v>
       </c>
       <c r="M14" s="2">
-        <v>40</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="P14" s="2">
         <v>0</v>
@@ -1738,25 +1664,25 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2">
         <v>180</v>
       </c>
       <c r="I15" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" s="2">
         <v>30</v>
@@ -1768,13 +1694,13 @@
         <v>3</v>
       </c>
       <c r="M15" s="2">
-        <v>30</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -1782,25 +1708,25 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2">
         <v>180</v>
       </c>
       <c r="I16" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J16" s="2">
         <v>30</v>
@@ -1814,11 +1740,11 @@
       <c r="M16" s="2">
         <v>30</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>71</v>
+      <c r="N16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
@@ -1826,25 +1752,25 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="2">
         <v>180</v>
       </c>
       <c r="I17" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J17" s="2">
         <v>30</v>
@@ -1856,13 +1782,13 @@
         <v>3</v>
       </c>
       <c r="M17" s="2">
-        <v>20</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>74</v>
+        <v>200</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -1870,25 +1796,25 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="2">
         <v>180</v>
       </c>
       <c r="I18" s="2">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="J18" s="2">
         <v>30</v>
@@ -1900,13 +1826,13 @@
         <v>3</v>
       </c>
       <c r="M18" s="2">
-        <v>20</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>79</v>
+        <v>99999</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -1914,19 +1840,19 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2">
         <v>180</v>
@@ -1944,77 +1870,33 @@
         <v>3</v>
       </c>
       <c r="M19" s="2">
-        <v>15</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>300</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>180</v>
-      </c>
-      <c r="I20" s="2">
-        <v>8</v>
-      </c>
-      <c r="J20" s="2">
-        <v>30</v>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>3</v>
-      </c>
-      <c r="M20" s="2">
-        <v>15</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>300</v>
+        <v>99999999</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2">
         <v>180</v>
@@ -2032,13 +1914,13 @@
         <v>3</v>
       </c>
       <c r="M21" s="2">
-        <v>10</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>91</v>
+        <v>99999999</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="P21" s="2">
         <v>0</v>
@@ -2046,107 +1928,107 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2">
         <v>180</v>
       </c>
       <c r="I22" s="2">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2">
+        <v>30</v>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>3</v>
+      </c>
+      <c r="M22" s="2">
+        <v>20</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>500</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>180</v>
+      </c>
+      <c r="I23" s="2">
+        <v>8</v>
+      </c>
+      <c r="J23" s="2">
+        <v>30</v>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>3</v>
+      </c>
+      <c r="M23" s="2">
         <v>10</v>
       </c>
-      <c r="J22" s="2">
-        <v>30</v>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>3</v>
-      </c>
-      <c r="M22" s="2">
-        <v>10</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>300</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>180</v>
-      </c>
-      <c r="I24" s="2">
-        <v>10</v>
-      </c>
-      <c r="J24" s="2">
-        <v>30</v>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>3</v>
-      </c>
-      <c r="M24" s="2">
-        <v>20</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="P24" s="2">
+      <c r="N23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25" s="2">
         <v>180</v>
@@ -2158,19 +2040,19 @@
         <v>30</v>
       </c>
       <c r="K25" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
         <v>3</v>
       </c>
       <c r="M25" s="2">
-        <v>10</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
@@ -2178,19 +2060,19 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="2">
         <v>180</v>
@@ -2202,7 +2084,7 @@
         <v>30</v>
       </c>
       <c r="K26" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
         <v>3</v>
@@ -2210,11 +2092,11 @@
       <c r="M26" s="2">
         <v>30</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>62</v>
+      <c r="N26" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
@@ -2222,43 +2104,43 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2">
         <v>180</v>
       </c>
       <c r="I27" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J27" s="2">
         <v>30</v>
       </c>
       <c r="K27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
         <v>3</v>
       </c>
       <c r="M27" s="2">
-        <v>200</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -2266,43 +2148,43 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="2">
         <v>180</v>
       </c>
       <c r="I28" s="2">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="J28" s="2">
         <v>30</v>
       </c>
       <c r="K28" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
         <v>3</v>
       </c>
       <c r="M28" s="2">
-        <v>99999</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>62</v>
+        <v>20</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>
@@ -2310,19 +2192,19 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2">
         <v>180</v>
@@ -2334,39 +2216,83 @@
         <v>30</v>
       </c>
       <c r="K29" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
         <v>3</v>
       </c>
       <c r="M29" s="2">
-        <v>10</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P29" s="2">
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>300</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>180</v>
+      </c>
+      <c r="I30" s="2">
+        <v>8</v>
+      </c>
+      <c r="J30" s="2">
+        <v>30</v>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>3</v>
+      </c>
+      <c r="M30" s="2">
         <v>20</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>99999999</v>
+        <v>300</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2">
         <v>180</v>
@@ -2378,19 +2304,19 @@
         <v>30</v>
       </c>
       <c r="K31" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="2">
         <v>3</v>
       </c>
       <c r="M31" s="2">
-        <v>99999999</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>
@@ -2398,19 +2324,19 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32" s="2">
         <v>180</v>
@@ -2422,19 +2348,19 @@
         <v>30</v>
       </c>
       <c r="K32" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="2">
         <v>3</v>
       </c>
       <c r="M32" s="2">
-        <v>20</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="P32" s="2">
         <v>0</v>
@@ -2442,19 +2368,19 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E33" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2">
         <v>180</v>
@@ -2466,7 +2392,7 @@
         <v>30</v>
       </c>
       <c r="K33" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="2">
         <v>3</v>
@@ -2474,22 +2400,66 @@
       <c r="M33" s="2">
         <v>10</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>62</v>
+      <c r="N33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="P33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>300</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="2">
+        <v>180</v>
+      </c>
+      <c r="I34" s="2">
+        <v>8</v>
+      </c>
+      <c r="J34" s="2">
+        <v>30</v>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>3</v>
+      </c>
+      <c r="M34" s="2">
+        <v>10</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
@@ -2498,7 +2468,7 @@
         <v>300</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36" s="2">
         <v>180</v>
@@ -2510,7 +2480,7 @@
         <v>30</v>
       </c>
       <c r="K36" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="2">
         <v>3</v>
@@ -2519,10 +2489,10 @@
         <v>20</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="P36" s="2">
         <v>0</v>
@@ -2530,10 +2500,10 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
@@ -2542,7 +2512,7 @@
         <v>300</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37" s="2">
         <v>180</v>
@@ -2554,7 +2524,7 @@
         <v>30</v>
       </c>
       <c r="K37" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="2">
         <v>3</v>
@@ -2563,10 +2533,10 @@
         <v>20</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="P37" s="2">
         <v>0</v>
@@ -2574,10 +2544,10 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
@@ -2586,7 +2556,7 @@
         <v>300</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H38" s="2">
         <v>180</v>
@@ -2598,7 +2568,7 @@
         <v>30</v>
       </c>
       <c r="K38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="2">
         <v>3</v>
@@ -2607,10 +2577,10 @@
         <v>15</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="P38" s="2">
         <v>0</v>
@@ -2618,10 +2588,10 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
@@ -2630,7 +2600,7 @@
         <v>300</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H39" s="2">
         <v>180</v>
@@ -2642,7 +2612,7 @@
         <v>30</v>
       </c>
       <c r="K39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="2">
         <v>3</v>
@@ -2651,10 +2621,10 @@
         <v>15</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="P39" s="2">
         <v>0</v>
@@ -2662,10 +2632,10 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
@@ -2674,7 +2644,7 @@
         <v>300</v>
       </c>
       <c r="G40" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H40" s="2">
         <v>180</v>
@@ -2686,7 +2656,7 @@
         <v>30</v>
       </c>
       <c r="K40" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="2">
         <v>3</v>
@@ -2695,10 +2665,10 @@
         <v>10</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="P40" s="2">
         <v>0</v>
@@ -2706,10 +2676,10 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
@@ -2718,7 +2688,7 @@
         <v>300</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41" s="2">
         <v>180</v>
@@ -2730,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="K41" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="2">
         <v>3</v>
@@ -2739,10 +2709,10 @@
         <v>20</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="P41" s="2">
         <v>0</v>
@@ -2750,10 +2720,10 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
@@ -2762,7 +2732,7 @@
         <v>300</v>
       </c>
       <c r="G42" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42" s="2">
         <v>180</v>
@@ -2774,7 +2744,7 @@
         <v>30</v>
       </c>
       <c r="K42" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="2">
         <v>3</v>
@@ -2783,10 +2753,10 @@
         <v>20</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="P42" s="2">
         <v>0</v>
@@ -2794,10 +2764,10 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -2806,7 +2776,7 @@
         <v>300</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" s="2">
         <v>180</v>
@@ -2818,7 +2788,7 @@
         <v>30</v>
       </c>
       <c r="K43" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="2">
         <v>3</v>
@@ -2827,10 +2797,10 @@
         <v>15</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="P43" s="2">
         <v>0</v>
@@ -2838,10 +2808,10 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
@@ -2850,7 +2820,7 @@
         <v>300</v>
       </c>
       <c r="G44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44" s="2">
         <v>180</v>
@@ -2862,7 +2832,7 @@
         <v>30</v>
       </c>
       <c r="K44" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="2">
         <v>3</v>
@@ -2871,10 +2841,10 @@
         <v>15</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="P44" s="2">
         <v>0</v>
@@ -2882,10 +2852,10 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E45" s="2" t="b">
         <v>0</v>
@@ -2894,7 +2864,7 @@
         <v>300</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45" s="2">
         <v>180</v>
@@ -2906,7 +2876,7 @@
         <v>30</v>
       </c>
       <c r="K45" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="2">
         <v>3</v>
@@ -2915,10 +2885,10 @@
         <v>10</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="P45" s="2">
         <v>0</v>
@@ -2926,10 +2896,10 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
@@ -2938,7 +2908,7 @@
         <v>300</v>
       </c>
       <c r="G46" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2">
         <v>180</v>
@@ -2950,7 +2920,7 @@
         <v>30</v>
       </c>
       <c r="K46" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="2">
         <v>3</v>
@@ -2959,10 +2929,10 @@
         <v>20</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="P46" s="2">
         <v>0</v>
@@ -2970,10 +2940,10 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
@@ -2982,7 +2952,7 @@
         <v>300</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H47" s="2">
         <v>180</v>
@@ -2994,7 +2964,7 @@
         <v>30</v>
       </c>
       <c r="K47" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="2">
         <v>3</v>
@@ -3003,10 +2973,10 @@
         <v>20</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="P47" s="2">
         <v>0</v>
@@ -3014,10 +2984,10 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
@@ -3026,7 +2996,7 @@
         <v>300</v>
       </c>
       <c r="G48" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H48" s="2">
         <v>180</v>
@@ -3038,7 +3008,7 @@
         <v>30</v>
       </c>
       <c r="K48" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="2">
         <v>3</v>
@@ -3047,10 +3017,10 @@
         <v>15</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="P48" s="2">
         <v>0</v>
@@ -3058,10 +3028,10 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
@@ -3070,7 +3040,7 @@
         <v>300</v>
       </c>
       <c r="G49" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2">
         <v>180</v>
@@ -3082,7 +3052,7 @@
         <v>30</v>
       </c>
       <c r="K49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="2">
         <v>3</v>
@@ -3091,10 +3061,10 @@
         <v>15</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="P49" s="2">
         <v>0</v>
@@ -3102,10 +3072,10 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E50" s="2" t="b">
         <v>0</v>
@@ -3114,7 +3084,7 @@
         <v>300</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H50" s="2">
         <v>180</v>
@@ -3126,7 +3096,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="2">
         <v>3</v>
@@ -3135,10 +3105,10 @@
         <v>10</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="P50" s="2">
         <v>0</v>
@@ -3146,10 +3116,10 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
@@ -3158,7 +3128,7 @@
         <v>300</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H51" s="2">
         <v>180</v>
@@ -3170,7 +3140,7 @@
         <v>30</v>
       </c>
       <c r="K51" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="2">
         <v>3</v>
@@ -3179,10 +3149,10 @@
         <v>20</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="P51" s="2">
         <v>0</v>
@@ -3190,10 +3160,10 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
@@ -3202,7 +3172,7 @@
         <v>300</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H52" s="2">
         <v>180</v>
@@ -3214,7 +3184,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="2">
         <v>3</v>
@@ -3223,10 +3193,10 @@
         <v>20</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P52" s="2">
         <v>0</v>
@@ -3234,10 +3204,10 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
@@ -3246,7 +3216,7 @@
         <v>300</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H53" s="2">
         <v>180</v>
@@ -3258,7 +3228,7 @@
         <v>30</v>
       </c>
       <c r="K53" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="2">
         <v>3</v>
@@ -3267,10 +3237,10 @@
         <v>15</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="P53" s="2">
         <v>0</v>
@@ -3278,10 +3248,10 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
@@ -3290,7 +3260,7 @@
         <v>300</v>
       </c>
       <c r="G54" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H54" s="2">
         <v>180</v>
@@ -3302,7 +3272,7 @@
         <v>30</v>
       </c>
       <c r="K54" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="2">
         <v>3</v>
@@ -3311,10 +3281,10 @@
         <v>15</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="P54" s="2">
         <v>0</v>
@@ -3322,10 +3292,10 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
@@ -3334,7 +3304,7 @@
         <v>300</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H55" s="2">
         <v>180</v>
@@ -3346,7 +3316,7 @@
         <v>30</v>
       </c>
       <c r="K55" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="2">
         <v>3</v>
@@ -3355,10 +3325,10 @@
         <v>10</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="P55" s="2">
         <v>0</v>
@@ -3366,10 +3336,10 @@
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="E57" s="2" t="b">
         <v>0</v>
@@ -3378,13 +3348,13 @@
         <v>300</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H57" s="2">
         <v>180</v>
       </c>
       <c r="I57" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J57" s="2">
         <v>30</v>
@@ -3398,11 +3368,11 @@
       <c r="M57" s="2">
         <v>20</v>
       </c>
-      <c r="N57" s="2" t="s">
-        <v>59</v>
+      <c r="N57" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="P57" s="2">
         <v>0</v>
@@ -3410,10 +3380,10 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="E58" s="2" t="b">
         <v>0</v>
@@ -3422,13 +3392,13 @@
         <v>300</v>
       </c>
       <c r="G58" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H58" s="2">
         <v>180</v>
       </c>
       <c r="I58" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J58" s="2">
         <v>30</v>
@@ -3442,11 +3412,11 @@
       <c r="M58" s="2">
         <v>20</v>
       </c>
-      <c r="N58" s="2" t="s">
-        <v>59</v>
+      <c r="N58" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="P58" s="2">
         <v>0</v>
@@ -3454,10 +3424,10 @@
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="E59" s="2" t="b">
         <v>0</v>
@@ -3466,13 +3436,13 @@
         <v>300</v>
       </c>
       <c r="G59" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H59" s="2">
         <v>180</v>
       </c>
       <c r="I59" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J59" s="2">
         <v>30</v>
@@ -3486,11 +3456,11 @@
       <c r="M59" s="2">
         <v>20</v>
       </c>
-      <c r="N59" s="2" t="s">
-        <v>59</v>
+      <c r="N59" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="P59" s="2">
         <v>0</v>
@@ -3498,10 +3468,10 @@
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="E60" s="2" t="b">
         <v>0</v>
@@ -3510,13 +3480,13 @@
         <v>300</v>
       </c>
       <c r="G60" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H60" s="2">
         <v>180</v>
       </c>
       <c r="I60" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J60" s="2">
         <v>30</v>
@@ -3530,11 +3500,11 @@
       <c r="M60" s="2">
         <v>20</v>
       </c>
-      <c r="N60" s="2" t="s">
-        <v>59</v>
+      <c r="N60" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="P60" s="2">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFEDEBE-F44F-4133-AE36-8D5D3A541900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F162C168-3CAD-496C-8C8A-F4571B569437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="199">
   <si>
     <t>##var</t>
   </si>
@@ -717,21 +717,94 @@
     <t>MonsterWaveCallRule_Season0_Challenge10</t>
   </si>
   <si>
-    <r>
-      <t>BuyTowerRefreshRule_Challenge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>TowerDefenseCfg_Challenge11</t>
+  </si>
+  <si>
+    <t>挑战关卡11</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge12</t>
+  </si>
+  <si>
+    <t>挑战关卡12</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge13</t>
+  </si>
+  <si>
+    <t>挑战关卡13</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge14</t>
+  </si>
+  <si>
+    <t>挑战关卡14</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge15</t>
+  </si>
+  <si>
+    <t>挑战关卡15</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge16</t>
+  </si>
+  <si>
+    <t>挑战关卡16</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge17</t>
+  </si>
+  <si>
+    <t>挑战关卡17</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge18</t>
+  </si>
+  <si>
+    <t>挑战关卡18</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge19</t>
+  </si>
+  <si>
+    <t>挑战关卡19</t>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Challenge20</t>
+  </si>
+  <si>
+    <t>挑战关卡20</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge11</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge12</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge13</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge14</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge15</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge16</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge17</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge18</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge19</t>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season0_Challenge20</t>
   </si>
 </sst>
 </file>
@@ -1145,13 +1218,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD60"/>
+  <dimension ref="A1:AD70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P57" sqref="P57"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2093,7 +2166,7 @@
         <v>30</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>160</v>
@@ -2454,12 +2527,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>300</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+      <c r="H35" s="2">
+        <v>180</v>
+      </c>
+      <c r="I35" s="2">
+        <v>8</v>
+      </c>
+      <c r="J35" s="2">
+        <v>30</v>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>3</v>
+      </c>
+      <c r="M35" s="2">
+        <v>10</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>104</v>
+      <c r="B36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="E36" s="2" t="b">
         <v>0</v>
@@ -2486,24 +2603,24 @@
         <v>3</v>
       </c>
       <c r="M36" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>124</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="P36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>105</v>
+      <c r="B37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E37" s="2" t="b">
         <v>0</v>
@@ -2530,24 +2647,24 @@
         <v>3</v>
       </c>
       <c r="M37" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>124</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="P37" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>106</v>
+      <c r="B38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E38" s="2" t="b">
         <v>0</v>
@@ -2574,24 +2691,24 @@
         <v>3</v>
       </c>
       <c r="M38" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>124</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="P38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>107</v>
+      <c r="B39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E39" s="2" t="b">
         <v>0</v>
@@ -2618,24 +2735,24 @@
         <v>3</v>
       </c>
       <c r="M39" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>124</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="P39" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>108</v>
+      <c r="B40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="E40" s="2" t="b">
         <v>0</v>
@@ -2668,18 +2785,18 @@
         <v>124</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="P40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>109</v>
+      <c r="B41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="E41" s="2" t="b">
         <v>0</v>
@@ -2706,24 +2823,24 @@
         <v>3</v>
       </c>
       <c r="M41" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>124</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="P41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>110</v>
+      <c r="B42" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="E42" s="2" t="b">
         <v>0</v>
@@ -2750,24 +2867,24 @@
         <v>3</v>
       </c>
       <c r="M42" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>124</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="P42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>111</v>
+      <c r="B43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E43" s="2" t="b">
         <v>0</v>
@@ -2794,24 +2911,24 @@
         <v>3</v>
       </c>
       <c r="M43" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>124</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="P43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>112</v>
+      <c r="B44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="E44" s="2" t="b">
         <v>0</v>
@@ -2838,68 +2955,24 @@
         <v>3</v>
       </c>
       <c r="M44" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>124</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="P44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>300</v>
-      </c>
-      <c r="G45" s="2">
-        <v>5</v>
-      </c>
-      <c r="H45" s="2">
-        <v>180</v>
-      </c>
-      <c r="I45" s="2">
-        <v>8</v>
-      </c>
-      <c r="J45" s="2">
-        <v>30</v>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2">
-        <v>3</v>
-      </c>
-      <c r="M45" s="2">
-        <v>10</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="b">
         <v>0</v>
@@ -2932,7 +3005,7 @@
         <v>124</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="P46" s="2">
         <v>0</v>
@@ -2940,10 +3013,10 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="b">
         <v>0</v>
@@ -2976,7 +3049,7 @@
         <v>124</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="P47" s="2">
         <v>0</v>
@@ -2984,10 +3057,10 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="b">
         <v>0</v>
@@ -3020,7 +3093,7 @@
         <v>124</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="P48" s="2">
         <v>0</v>
@@ -3028,10 +3101,10 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="b">
         <v>0</v>
@@ -3064,7 +3137,7 @@
         <v>124</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P49" s="2">
         <v>0</v>
@@ -3072,10 +3145,10 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="b">
         <v>0</v>
@@ -3108,7 +3181,7 @@
         <v>124</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="P50" s="2">
         <v>0</v>
@@ -3116,10 +3189,10 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="b">
         <v>0</v>
@@ -3152,7 +3225,7 @@
         <v>124</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="P51" s="2">
         <v>0</v>
@@ -3160,10 +3233,10 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="b">
         <v>0</v>
@@ -3196,7 +3269,7 @@
         <v>124</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="P52" s="2">
         <v>0</v>
@@ -3204,10 +3277,10 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2" t="b">
         <v>0</v>
@@ -3240,7 +3313,7 @@
         <v>124</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="P53" s="2">
         <v>0</v>
@@ -3248,10 +3321,10 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="b">
         <v>0</v>
@@ -3284,7 +3357,7 @@
         <v>124</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="P54" s="2">
         <v>0</v>
@@ -3292,10 +3365,10 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2" t="b">
         <v>0</v>
@@ -3328,18 +3401,62 @@
         <v>124</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="P55" s="2">
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>300</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5</v>
+      </c>
+      <c r="H56" s="2">
+        <v>180</v>
+      </c>
+      <c r="I56" s="2">
+        <v>8</v>
+      </c>
+      <c r="J56" s="2">
+        <v>30</v>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>3</v>
+      </c>
+      <c r="M56" s="2">
+        <v>20</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="6" t="s">
-        <v>145</v>
+      <c r="B57" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="b">
         <v>0</v>
@@ -3371,142 +3488,538 @@
       <c r="N57" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="O57" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>300</v>
+      </c>
+      <c r="G58" s="2">
+        <v>5</v>
+      </c>
+      <c r="H58" s="2">
+        <v>180</v>
+      </c>
+      <c r="I58" s="2">
+        <v>8</v>
+      </c>
+      <c r="J58" s="2">
+        <v>30</v>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>3</v>
+      </c>
+      <c r="M58" s="2">
+        <v>15</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B59" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>300</v>
+      </c>
+      <c r="G59" s="2">
+        <v>5</v>
+      </c>
+      <c r="H59" s="2">
+        <v>180</v>
+      </c>
+      <c r="I59" s="2">
+        <v>8</v>
+      </c>
+      <c r="J59" s="2">
+        <v>30</v>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>3</v>
+      </c>
+      <c r="M59" s="2">
+        <v>15</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>300</v>
+      </c>
+      <c r="G60" s="2">
+        <v>5</v>
+      </c>
+      <c r="H60" s="2">
+        <v>180</v>
+      </c>
+      <c r="I60" s="2">
+        <v>8</v>
+      </c>
+      <c r="J60" s="2">
+        <v>30</v>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>3</v>
+      </c>
+      <c r="M60" s="2">
+        <v>10</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>300</v>
+      </c>
+      <c r="G61" s="2">
+        <v>5</v>
+      </c>
+      <c r="H61" s="2">
+        <v>180</v>
+      </c>
+      <c r="I61" s="2">
+        <v>8</v>
+      </c>
+      <c r="J61" s="2">
+        <v>30</v>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2">
+        <v>3</v>
+      </c>
+      <c r="M61" s="2">
+        <v>20</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>300</v>
+      </c>
+      <c r="G62" s="2">
+        <v>5</v>
+      </c>
+      <c r="H62" s="2">
+        <v>180</v>
+      </c>
+      <c r="I62" s="2">
+        <v>8</v>
+      </c>
+      <c r="J62" s="2">
+        <v>30</v>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>3</v>
+      </c>
+      <c r="M62" s="2">
+        <v>20</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B63" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>300</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
+      </c>
+      <c r="H63" s="2">
+        <v>180</v>
+      </c>
+      <c r="I63" s="2">
+        <v>8</v>
+      </c>
+      <c r="J63" s="2">
+        <v>30</v>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" s="2">
+        <v>3</v>
+      </c>
+      <c r="M63" s="2">
+        <v>15</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B64" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>300</v>
+      </c>
+      <c r="G64" s="2">
+        <v>5</v>
+      </c>
+      <c r="H64" s="2">
+        <v>180</v>
+      </c>
+      <c r="I64" s="2">
+        <v>8</v>
+      </c>
+      <c r="J64" s="2">
+        <v>30</v>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" s="2">
+        <v>3</v>
+      </c>
+      <c r="M64" s="2">
+        <v>15</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>300</v>
+      </c>
+      <c r="G65" s="2">
+        <v>5</v>
+      </c>
+      <c r="H65" s="2">
+        <v>180</v>
+      </c>
+      <c r="I65" s="2">
+        <v>8</v>
+      </c>
+      <c r="J65" s="2">
+        <v>30</v>
+      </c>
+      <c r="K65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>3</v>
+      </c>
+      <c r="M65" s="2">
+        <v>10</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>300</v>
+      </c>
+      <c r="G67" s="2">
+        <v>5</v>
+      </c>
+      <c r="H67" s="2">
+        <v>180</v>
+      </c>
+      <c r="I67" s="2">
+        <v>8</v>
+      </c>
+      <c r="J67" s="2">
+        <v>30</v>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>3</v>
+      </c>
+      <c r="M67" s="2">
+        <v>20</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="6" t="s">
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2">
-        <v>300</v>
-      </c>
-      <c r="G58" s="2">
-        <v>5</v>
-      </c>
-      <c r="H58" s="2">
-        <v>180</v>
-      </c>
-      <c r="I58" s="2">
-        <v>8</v>
-      </c>
-      <c r="J58" s="2">
-        <v>30</v>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2">
-        <v>3</v>
-      </c>
-      <c r="M58" s="2">
+      <c r="E68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>300</v>
+      </c>
+      <c r="G68" s="2">
+        <v>5</v>
+      </c>
+      <c r="H68" s="2">
+        <v>180</v>
+      </c>
+      <c r="I68" s="2">
+        <v>8</v>
+      </c>
+      <c r="J68" s="2">
+        <v>30</v>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>3</v>
+      </c>
+      <c r="M68" s="2">
         <v>20</v>
       </c>
-      <c r="N58" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O58" s="2" t="s">
+      <c r="N68" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B59" s="6" t="s">
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>300</v>
-      </c>
-      <c r="G59" s="2">
-        <v>5</v>
-      </c>
-      <c r="H59" s="2">
-        <v>180</v>
-      </c>
-      <c r="I59" s="2">
-        <v>8</v>
-      </c>
-      <c r="J59" s="2">
-        <v>30</v>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2">
-        <v>3</v>
-      </c>
-      <c r="M59" s="2">
+      <c r="E69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>300</v>
+      </c>
+      <c r="G69" s="2">
+        <v>5</v>
+      </c>
+      <c r="H69" s="2">
+        <v>180</v>
+      </c>
+      <c r="I69" s="2">
+        <v>8</v>
+      </c>
+      <c r="J69" s="2">
+        <v>30</v>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" s="2">
+        <v>3</v>
+      </c>
+      <c r="M69" s="2">
         <v>20</v>
       </c>
-      <c r="N59" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O59" s="2" t="s">
+      <c r="N69" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O69" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B60" s="6" t="s">
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B70" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2">
-        <v>300</v>
-      </c>
-      <c r="G60" s="2">
-        <v>5</v>
-      </c>
-      <c r="H60" s="2">
-        <v>180</v>
-      </c>
-      <c r="I60" s="2">
-        <v>8</v>
-      </c>
-      <c r="J60" s="2">
-        <v>30</v>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" s="2">
-        <v>3</v>
-      </c>
-      <c r="M60" s="2">
+      <c r="E70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>300</v>
+      </c>
+      <c r="G70" s="2">
+        <v>5</v>
+      </c>
+      <c r="H70" s="2">
+        <v>180</v>
+      </c>
+      <c r="I70" s="2">
+        <v>8</v>
+      </c>
+      <c r="J70" s="2">
+        <v>30</v>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" s="2">
+        <v>3</v>
+      </c>
+      <c r="M70" s="2">
         <v>20</v>
       </c>
-      <c r="N60" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O60" s="2" t="s">
+      <c r="N70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P60" s="2">
+      <c r="P70" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/GamePlayTowerDefenseCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F162C168-3CAD-496C-8C8A-F4571B569437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56E495-261A-4E4C-B09E-AC1C479BCD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="205">
   <si>
     <t>##var</t>
   </si>
@@ -676,9 +676,6 @@
     <t>MonsterWaveCallRule_Season3_Infinite</t>
   </si>
   <si>
-    <t>MonsterWaveCallRule_Season4_Infinite</t>
-  </si>
-  <si>
     <t>isAutoRefreshBuyTower</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -805,13 +802,41 @@
   </si>
   <si>
     <t>MonsterWaveCallRule_Season0_Challenge20</t>
+  </si>
+  <si>
+    <t>interestOnDepositMaxValue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>波次结束结算存款利息最大值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefenseCfg_Infinite_Demo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示用无限关卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyTowerRefreshRule_Demo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Season4_Infinite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterWaveCallRule_Infinite_Demo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,6 +885,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1218,13 +1249,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD70"/>
+  <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="L51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O31" sqref="O31:O44"/>
+      <selection pane="bottomRight" activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1235,16 +1266,18 @@
     <col min="4" max="4" width="6" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
-    <col min="7" max="12" width="8.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="34" style="2" customWidth="1"/>
-    <col min="15" max="15" width="65.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.25" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="24.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
+    <col min="9" max="13" width="8.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="34" style="2" customWidth="1"/>
+    <col min="16" max="16" width="65.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,36 +1300,38 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -1309,8 +1344,9 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1366,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="2"/>
+      <c r="R2" s="1"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1343,8 +1379,9 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1367,36 +1404,38 @@
         <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1409,8 +1448,9 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1432,7 +1472,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="2"/>
+      <c r="R4" s="4"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -1445,8 +1485,9 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1469,36 +1510,38 @@
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="L5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1511,8 +1554,9 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1529,37 +1573,40 @@
         <v>5</v>
       </c>
       <c r="H6" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I6" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J6" s="2">
-        <v>30</v>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K6" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M6" s="2">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2">
         <v>50</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
@@ -1576,34 +1623,37 @@
         <v>5</v>
       </c>
       <c r="H8" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I8" s="2">
+        <v>180</v>
+      </c>
+      <c r="J8" s="2">
         <v>10</v>
       </c>
-      <c r="J8" s="2">
-        <v>30</v>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>3</v>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
         <v>20</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>82</v>
       </c>
@@ -1620,34 +1670,37 @@
         <v>5</v>
       </c>
       <c r="H9" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I9" s="2">
+        <v>180</v>
+      </c>
+      <c r="J9" s="2">
         <v>10</v>
       </c>
-      <c r="J9" s="2">
-        <v>30</v>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>3</v>
+      <c r="K9" s="2">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M9" s="2">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2">
         <v>40</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>78</v>
       </c>
@@ -1664,34 +1717,37 @@
         <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I11" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J11" s="2">
-        <v>30</v>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>30</v>
+      </c>
+      <c r="L11" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M11" s="2">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2">
         <v>20</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>75</v>
       </c>
@@ -1708,34 +1764,37 @@
         <v>5</v>
       </c>
       <c r="H14" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I14" s="2">
+        <v>180</v>
+      </c>
+      <c r="J14" s="2">
         <v>10</v>
       </c>
-      <c r="J14" s="2">
-        <v>30</v>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>3</v>
+      <c r="K14" s="2">
+        <v>30</v>
+      </c>
+      <c r="L14" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M14" s="2">
+        <v>3</v>
+      </c>
+      <c r="N14" s="2">
         <v>20</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1752,34 +1811,37 @@
         <v>5</v>
       </c>
       <c r="H15" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I15" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J15" s="2">
-        <v>30</v>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K15" s="2">
+        <v>30</v>
+      </c>
+      <c r="L15" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M15" s="2">
+        <v>3</v>
+      </c>
+      <c r="N15" s="2">
         <v>10</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
@@ -1796,34 +1858,37 @@
         <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I16" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J16" s="2">
-        <v>30</v>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K16" s="2">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>30</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="N16" s="2">
+        <v>30</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1840,34 +1905,37 @@
         <v>5</v>
       </c>
       <c r="H17" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I17" s="2">
+        <v>180</v>
+      </c>
+      <c r="J17" s="2">
         <v>10</v>
       </c>
-      <c r="J17" s="2">
-        <v>30</v>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>3</v>
+      <c r="K17" s="2">
+        <v>30</v>
+      </c>
+      <c r="L17" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M17" s="2">
+        <v>3</v>
+      </c>
+      <c r="N17" s="2">
         <v>200</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1884,34 +1952,37 @@
         <v>5</v>
       </c>
       <c r="H18" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I18" s="2">
+        <v>180</v>
+      </c>
+      <c r="J18" s="2">
         <v>100</v>
       </c>
-      <c r="J18" s="2">
-        <v>30</v>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>3</v>
+      <c r="K18" s="2">
+        <v>30</v>
+      </c>
+      <c r="L18" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M18" s="2">
+        <v>3</v>
+      </c>
+      <c r="N18" s="2">
         <v>99999</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1928,34 +1999,37 @@
         <v>5</v>
       </c>
       <c r="H19" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I19" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J19" s="2">
-        <v>30</v>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K19" s="2">
+        <v>30</v>
+      </c>
+      <c r="L19" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M19" s="2">
+        <v>3</v>
+      </c>
+      <c r="N19" s="2">
         <v>10</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="O19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q19" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
@@ -1972,34 +2046,37 @@
         <v>5</v>
       </c>
       <c r="H21" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I21" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J21" s="2">
-        <v>30</v>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K21" s="2">
+        <v>30</v>
+      </c>
+      <c r="L21" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M21" s="2">
+        <v>3</v>
+      </c>
+      <c r="N21" s="2">
         <v>99999999</v>
       </c>
-      <c r="N21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2016,34 +2093,37 @@
         <v>5</v>
       </c>
       <c r="H22" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I22" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J22" s="2">
-        <v>30</v>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K22" s="2">
+        <v>30</v>
+      </c>
+      <c r="L22" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M22" s="2">
+        <v>3</v>
+      </c>
+      <c r="N22" s="2">
         <v>20</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
@@ -2060,34 +2140,37 @@
         <v>5</v>
       </c>
       <c r="H23" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I23" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J23" s="2">
-        <v>30</v>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K23" s="2">
+        <v>30</v>
+      </c>
+      <c r="L23" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="M23" s="2">
+        <v>3</v>
+      </c>
+      <c r="N23" s="2">
         <v>10</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
@@ -2104,34 +2187,37 @@
         <v>5</v>
       </c>
       <c r="H25" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I25" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J25" s="2">
-        <v>30</v>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K25" s="2">
+        <v>30</v>
+      </c>
+      <c r="L25" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>30</v>
-      </c>
-      <c r="N25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="2">
+        <v>30</v>
+      </c>
+      <c r="O25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>57</v>
       </c>
@@ -2148,34 +2234,37 @@
         <v>5</v>
       </c>
       <c r="H26" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I26" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J26" s="2">
-        <v>30</v>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K26" s="2">
+        <v>30</v>
+      </c>
+      <c r="L26" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>30</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="N26" s="2">
+        <v>30</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>58</v>
       </c>
@@ -2192,34 +2281,37 @@
         <v>5</v>
       </c>
       <c r="H27" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I27" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J27" s="2">
-        <v>30</v>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K27" s="2">
+        <v>30</v>
+      </c>
+      <c r="L27" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>30</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="N27" s="2">
+        <v>30</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
@@ -2236,34 +2328,37 @@
         <v>5</v>
       </c>
       <c r="H28" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I28" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J28" s="2">
-        <v>30</v>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K28" s="2">
+        <v>30</v>
+      </c>
+      <c r="L28" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M28" s="2">
+        <v>3</v>
+      </c>
+      <c r="N28" s="2">
         <v>20</v>
       </c>
-      <c r="N28" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
@@ -2280,34 +2375,37 @@
         <v>5</v>
       </c>
       <c r="H29" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I29" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J29" s="2">
-        <v>30</v>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K29" s="2">
+        <v>30</v>
+      </c>
+      <c r="L29" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M29" s="2">
+        <v>3</v>
+      </c>
+      <c r="N29" s="2">
         <v>20</v>
       </c>
-      <c r="N29" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
@@ -2324,34 +2422,37 @@
         <v>5</v>
       </c>
       <c r="H30" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I30" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J30" s="2">
-        <v>30</v>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K30" s="2">
+        <v>30</v>
+      </c>
+      <c r="L30" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M30" s="2">
+        <v>3</v>
+      </c>
+      <c r="N30" s="2">
         <v>20</v>
       </c>
-      <c r="N30" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
@@ -2368,34 +2469,37 @@
         <v>5</v>
       </c>
       <c r="H31" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I31" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J31" s="2">
-        <v>30</v>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K31" s="2">
+        <v>30</v>
+      </c>
+      <c r="L31" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M31" s="2">
+        <v>3</v>
+      </c>
+      <c r="N31" s="2">
         <v>15</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O31" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
@@ -2412,34 +2516,37 @@
         <v>5</v>
       </c>
       <c r="H32" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I32" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J32" s="2">
-        <v>30</v>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K32" s="2">
+        <v>30</v>
+      </c>
+      <c r="L32" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M32" s="2">
+        <v>3</v>
+      </c>
+      <c r="N32" s="2">
         <v>15</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
@@ -2456,34 +2563,37 @@
         <v>5</v>
       </c>
       <c r="H33" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I33" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J33" s="2">
-        <v>30</v>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K33" s="2">
+        <v>30</v>
+      </c>
+      <c r="L33" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M33" s="2">
+        <v>3</v>
+      </c>
+      <c r="N33" s="2">
         <v>10</v>
       </c>
-      <c r="N33" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
@@ -2500,474 +2610,507 @@
         <v>5</v>
       </c>
       <c r="H34" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I34" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J34" s="2">
-        <v>30</v>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K34" s="2">
+        <v>30</v>
+      </c>
+      <c r="L34" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M34" s="2">
+        <v>3</v>
+      </c>
+      <c r="N34" s="2">
         <v>10</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>300</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+      <c r="H35" s="2">
+        <v>300</v>
+      </c>
+      <c r="I35" s="2">
+        <v>180</v>
+      </c>
+      <c r="J35" s="2">
+        <v>8</v>
+      </c>
+      <c r="K35" s="2">
+        <v>30</v>
+      </c>
+      <c r="L35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>3</v>
+      </c>
+      <c r="N35" s="2">
+        <v>10</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>300</v>
-      </c>
-      <c r="G35" s="2">
-        <v>5</v>
-      </c>
-      <c r="H35" s="2">
-        <v>180</v>
-      </c>
-      <c r="I35" s="2">
-        <v>8</v>
-      </c>
-      <c r="J35" s="2">
-        <v>30</v>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2">
-        <v>3</v>
-      </c>
-      <c r="M35" s="2">
+      <c r="C36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>300</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2">
+        <v>300</v>
+      </c>
+      <c r="I36" s="2">
+        <v>180</v>
+      </c>
+      <c r="J36" s="2">
+        <v>8</v>
+      </c>
+      <c r="K36" s="2">
+        <v>30</v>
+      </c>
+      <c r="L36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>3</v>
+      </c>
+      <c r="N36" s="2">
         <v>10</v>
       </c>
-      <c r="N35" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="O36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>300</v>
-      </c>
-      <c r="G36" s="2">
-        <v>5</v>
-      </c>
-      <c r="H36" s="2">
-        <v>180</v>
-      </c>
-      <c r="I36" s="2">
-        <v>8</v>
-      </c>
-      <c r="J36" s="2">
-        <v>30</v>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2">
-        <v>3</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="C37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>300</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2">
+        <v>300</v>
+      </c>
+      <c r="I37" s="2">
+        <v>180</v>
+      </c>
+      <c r="J37" s="2">
+        <v>8</v>
+      </c>
+      <c r="K37" s="2">
+        <v>30</v>
+      </c>
+      <c r="L37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>3</v>
+      </c>
+      <c r="N37" s="2">
         <v>10</v>
       </c>
-      <c r="N36" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="O37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>300</v>
-      </c>
-      <c r="G37" s="2">
-        <v>5</v>
-      </c>
-      <c r="H37" s="2">
-        <v>180</v>
-      </c>
-      <c r="I37" s="2">
-        <v>8</v>
-      </c>
-      <c r="J37" s="2">
-        <v>30</v>
-      </c>
-      <c r="K37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" s="2">
-        <v>3</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="C38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>300</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="2">
+        <v>300</v>
+      </c>
+      <c r="I38" s="2">
+        <v>180</v>
+      </c>
+      <c r="J38" s="2">
+        <v>8</v>
+      </c>
+      <c r="K38" s="2">
+        <v>30</v>
+      </c>
+      <c r="L38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2">
         <v>10</v>
       </c>
-      <c r="N37" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="O38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>300</v>
-      </c>
-      <c r="G38" s="2">
-        <v>5</v>
-      </c>
-      <c r="H38" s="2">
-        <v>180</v>
-      </c>
-      <c r="I38" s="2">
-        <v>8</v>
-      </c>
-      <c r="J38" s="2">
-        <v>30</v>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="C39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>300</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2">
+        <v>300</v>
+      </c>
+      <c r="I39" s="2">
+        <v>180</v>
+      </c>
+      <c r="J39" s="2">
+        <v>8</v>
+      </c>
+      <c r="K39" s="2">
+        <v>30</v>
+      </c>
+      <c r="L39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>3</v>
+      </c>
+      <c r="N39" s="2">
         <v>10</v>
       </c>
-      <c r="N38" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="O39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>300</v>
-      </c>
-      <c r="G39" s="2">
-        <v>5</v>
-      </c>
-      <c r="H39" s="2">
-        <v>180</v>
-      </c>
-      <c r="I39" s="2">
-        <v>8</v>
-      </c>
-      <c r="J39" s="2">
-        <v>30</v>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
-        <v>3</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="C40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>300</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2">
+        <v>300</v>
+      </c>
+      <c r="I40" s="2">
+        <v>180</v>
+      </c>
+      <c r="J40" s="2">
+        <v>8</v>
+      </c>
+      <c r="K40" s="2">
+        <v>30</v>
+      </c>
+      <c r="L40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>3</v>
+      </c>
+      <c r="N40" s="2">
         <v>10</v>
       </c>
-      <c r="N39" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O39" s="7" t="s">
+      <c r="O40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>300</v>
-      </c>
-      <c r="G40" s="2">
-        <v>5</v>
-      </c>
-      <c r="H40" s="2">
-        <v>180</v>
-      </c>
-      <c r="I40" s="2">
-        <v>8</v>
-      </c>
-      <c r="J40" s="2">
-        <v>30</v>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2">
-        <v>3</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>300</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2">
+        <v>300</v>
+      </c>
+      <c r="I41" s="2">
+        <v>180</v>
+      </c>
+      <c r="J41" s="2">
+        <v>8</v>
+      </c>
+      <c r="K41" s="2">
+        <v>30</v>
+      </c>
+      <c r="L41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>3</v>
+      </c>
+      <c r="N41" s="2">
         <v>10</v>
       </c>
-      <c r="N40" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O40" s="7" t="s">
+      <c r="O41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>300</v>
-      </c>
-      <c r="G41" s="2">
-        <v>5</v>
-      </c>
-      <c r="H41" s="2">
-        <v>180</v>
-      </c>
-      <c r="I41" s="2">
-        <v>8</v>
-      </c>
-      <c r="J41" s="2">
-        <v>30</v>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
-        <v>3</v>
-      </c>
-      <c r="M41" s="2">
+      <c r="C42" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>300</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2">
+        <v>300</v>
+      </c>
+      <c r="I42" s="2">
+        <v>180</v>
+      </c>
+      <c r="J42" s="2">
+        <v>8</v>
+      </c>
+      <c r="K42" s="2">
+        <v>30</v>
+      </c>
+      <c r="L42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>3</v>
+      </c>
+      <c r="N42" s="2">
         <v>10</v>
       </c>
-      <c r="N41" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O41" s="7" t="s">
+      <c r="O42" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>300</v>
-      </c>
-      <c r="G42" s="2">
-        <v>5</v>
-      </c>
-      <c r="H42" s="2">
-        <v>180</v>
-      </c>
-      <c r="I42" s="2">
-        <v>8</v>
-      </c>
-      <c r="J42" s="2">
-        <v>30</v>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" s="2">
-        <v>3</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="C43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>300</v>
+      </c>
+      <c r="G43" s="2">
+        <v>5</v>
+      </c>
+      <c r="H43" s="2">
+        <v>300</v>
+      </c>
+      <c r="I43" s="2">
+        <v>180</v>
+      </c>
+      <c r="J43" s="2">
+        <v>8</v>
+      </c>
+      <c r="K43" s="2">
+        <v>30</v>
+      </c>
+      <c r="L43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>3</v>
+      </c>
+      <c r="N43" s="2">
         <v>10</v>
       </c>
-      <c r="N42" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O42" s="7" t="s">
+      <c r="O43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>300</v>
-      </c>
-      <c r="G43" s="2">
-        <v>5</v>
-      </c>
-      <c r="H43" s="2">
-        <v>180</v>
-      </c>
-      <c r="I43" s="2">
-        <v>8</v>
-      </c>
-      <c r="J43" s="2">
-        <v>30</v>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" s="2">
-        <v>3</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="C44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>300</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5</v>
+      </c>
+      <c r="H44" s="2">
+        <v>300</v>
+      </c>
+      <c r="I44" s="2">
+        <v>180</v>
+      </c>
+      <c r="J44" s="2">
+        <v>8</v>
+      </c>
+      <c r="K44" s="2">
+        <v>30</v>
+      </c>
+      <c r="L44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>3</v>
+      </c>
+      <c r="N44" s="2">
         <v>10</v>
       </c>
-      <c r="N43" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O43" s="7" t="s">
+      <c r="O44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>300</v>
-      </c>
-      <c r="G44" s="2">
-        <v>5</v>
-      </c>
-      <c r="H44" s="2">
-        <v>180</v>
-      </c>
-      <c r="I44" s="2">
-        <v>8</v>
-      </c>
-      <c r="J44" s="2">
-        <v>30</v>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" s="2">
-        <v>3</v>
-      </c>
-      <c r="M44" s="2">
-        <v>10</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>84</v>
       </c>
@@ -2984,34 +3127,37 @@
         <v>5</v>
       </c>
       <c r="H46" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I46" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J46" s="2">
-        <v>30</v>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K46" s="2">
+        <v>30</v>
+      </c>
+      <c r="L46" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M46" s="2">
+        <v>3</v>
+      </c>
+      <c r="N46" s="2">
         <v>20</v>
       </c>
-      <c r="N46" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O46" s="7" t="s">
+      <c r="O46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>85</v>
       </c>
@@ -3028,34 +3174,37 @@
         <v>5</v>
       </c>
       <c r="H47" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I47" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J47" s="2">
-        <v>30</v>
-      </c>
-      <c r="K47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K47" s="2">
+        <v>30</v>
+      </c>
+      <c r="L47" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M47" s="2">
+        <v>3</v>
+      </c>
+      <c r="N47" s="2">
         <v>20</v>
       </c>
-      <c r="N47" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O47" s="7" t="s">
+      <c r="O47" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>86</v>
       </c>
@@ -3072,34 +3221,37 @@
         <v>5</v>
       </c>
       <c r="H48" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I48" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J48" s="2">
-        <v>30</v>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K48" s="2">
+        <v>30</v>
+      </c>
+      <c r="L48" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M48" s="2">
+        <v>3</v>
+      </c>
+      <c r="N48" s="2">
         <v>15</v>
       </c>
-      <c r="N48" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O48" s="7" t="s">
+      <c r="O48" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>87</v>
       </c>
@@ -3116,34 +3268,37 @@
         <v>5</v>
       </c>
       <c r="H49" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I49" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J49" s="2">
-        <v>30</v>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K49" s="2">
+        <v>30</v>
+      </c>
+      <c r="L49" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M49" s="2">
+        <v>3</v>
+      </c>
+      <c r="N49" s="2">
         <v>15</v>
       </c>
-      <c r="N49" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O49" s="7" t="s">
+      <c r="O49" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>88</v>
       </c>
@@ -3160,34 +3315,37 @@
         <v>5</v>
       </c>
       <c r="H50" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I50" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J50" s="2">
-        <v>30</v>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K50" s="2">
+        <v>30</v>
+      </c>
+      <c r="L50" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M50" s="2">
+        <v>3</v>
+      </c>
+      <c r="N50" s="2">
         <v>10</v>
       </c>
-      <c r="N50" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O50" s="7" t="s">
+      <c r="O50" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>89</v>
       </c>
@@ -3204,34 +3362,37 @@
         <v>5</v>
       </c>
       <c r="H51" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I51" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J51" s="2">
-        <v>30</v>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K51" s="2">
+        <v>30</v>
+      </c>
+      <c r="L51" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M51" s="2">
+        <v>3</v>
+      </c>
+      <c r="N51" s="2">
         <v>20</v>
       </c>
-      <c r="N51" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O51" s="7" t="s">
+      <c r="O51" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>90</v>
       </c>
@@ -3248,34 +3409,37 @@
         <v>5</v>
       </c>
       <c r="H52" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I52" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J52" s="2">
-        <v>30</v>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K52" s="2">
+        <v>30</v>
+      </c>
+      <c r="L52" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M52" s="2">
+        <v>3</v>
+      </c>
+      <c r="N52" s="2">
         <v>20</v>
       </c>
-      <c r="N52" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O52" s="7" t="s">
+      <c r="O52" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>91</v>
       </c>
@@ -3292,34 +3456,37 @@
         <v>5</v>
       </c>
       <c r="H53" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I53" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J53" s="2">
-        <v>30</v>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K53" s="2">
+        <v>30</v>
+      </c>
+      <c r="L53" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M53" s="2">
+        <v>3</v>
+      </c>
+      <c r="N53" s="2">
         <v>15</v>
       </c>
-      <c r="N53" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O53" s="7" t="s">
+      <c r="O53" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
         <v>92</v>
       </c>
@@ -3336,34 +3503,37 @@
         <v>5</v>
       </c>
       <c r="H54" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I54" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J54" s="2">
-        <v>30</v>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K54" s="2">
+        <v>30</v>
+      </c>
+      <c r="L54" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M54" s="2">
+        <v>3</v>
+      </c>
+      <c r="N54" s="2">
         <v>15</v>
       </c>
-      <c r="N54" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O54" s="7" t="s">
+      <c r="O54" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>93</v>
       </c>
@@ -3380,34 +3550,37 @@
         <v>5</v>
       </c>
       <c r="H55" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I55" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J55" s="2">
-        <v>30</v>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K55" s="2">
+        <v>30</v>
+      </c>
+      <c r="L55" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M55" s="2">
+        <v>3</v>
+      </c>
+      <c r="N55" s="2">
         <v>10</v>
       </c>
-      <c r="N55" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O55" s="7" t="s">
+      <c r="O55" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>94</v>
       </c>
@@ -3424,34 +3597,37 @@
         <v>5</v>
       </c>
       <c r="H56" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I56" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J56" s="2">
-        <v>30</v>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K56" s="2">
+        <v>30</v>
+      </c>
+      <c r="L56" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M56" s="2">
+        <v>3</v>
+      </c>
+      <c r="N56" s="2">
         <v>20</v>
       </c>
-      <c r="N56" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O56" s="7" t="s">
+      <c r="O56" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>95</v>
       </c>
@@ -3468,34 +3644,37 @@
         <v>5</v>
       </c>
       <c r="H57" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I57" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J57" s="2">
-        <v>30</v>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K57" s="2">
+        <v>30</v>
+      </c>
+      <c r="L57" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M57" s="2">
+        <v>3</v>
+      </c>
+      <c r="N57" s="2">
         <v>20</v>
       </c>
-      <c r="N57" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O57" s="7" t="s">
+      <c r="O57" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>96</v>
       </c>
@@ -3512,34 +3691,37 @@
         <v>5</v>
       </c>
       <c r="H58" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I58" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J58" s="2">
-        <v>30</v>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K58" s="2">
+        <v>30</v>
+      </c>
+      <c r="L58" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M58" s="2">
+        <v>3</v>
+      </c>
+      <c r="N58" s="2">
         <v>15</v>
       </c>
-      <c r="N58" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O58" s="7" t="s">
+      <c r="O58" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
         <v>97</v>
       </c>
@@ -3556,34 +3738,37 @@
         <v>5</v>
       </c>
       <c r="H59" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I59" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J59" s="2">
-        <v>30</v>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K59" s="2">
+        <v>30</v>
+      </c>
+      <c r="L59" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M59" s="2">
+        <v>3</v>
+      </c>
+      <c r="N59" s="2">
         <v>15</v>
       </c>
-      <c r="N59" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O59" s="7" t="s">
+      <c r="O59" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P59" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
         <v>98</v>
       </c>
@@ -3600,34 +3785,37 @@
         <v>5</v>
       </c>
       <c r="H60" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I60" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J60" s="2">
-        <v>30</v>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K60" s="2">
+        <v>30</v>
+      </c>
+      <c r="L60" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M60" s="2">
+        <v>3</v>
+      </c>
+      <c r="N60" s="2">
         <v>10</v>
       </c>
-      <c r="N60" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O60" s="7" t="s">
+      <c r="O60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>99</v>
       </c>
@@ -3644,34 +3832,37 @@
         <v>5</v>
       </c>
       <c r="H61" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I61" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J61" s="2">
-        <v>30</v>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K61" s="2">
+        <v>30</v>
+      </c>
+      <c r="L61" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M61" s="2">
+        <v>3</v>
+      </c>
+      <c r="N61" s="2">
         <v>20</v>
       </c>
-      <c r="N61" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O61" s="7" t="s">
+      <c r="O61" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P61" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
         <v>100</v>
       </c>
@@ -3688,34 +3879,37 @@
         <v>5</v>
       </c>
       <c r="H62" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I62" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J62" s="2">
-        <v>30</v>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K62" s="2">
+        <v>30</v>
+      </c>
+      <c r="L62" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M62" s="2">
+        <v>3</v>
+      </c>
+      <c r="N62" s="2">
         <v>20</v>
       </c>
-      <c r="N62" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O62" s="7" t="s">
+      <c r="O62" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P62" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
         <v>101</v>
       </c>
@@ -3732,34 +3926,37 @@
         <v>5</v>
       </c>
       <c r="H63" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I63" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J63" s="2">
-        <v>30</v>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K63" s="2">
+        <v>30</v>
+      </c>
+      <c r="L63" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M63" s="2">
+        <v>3</v>
+      </c>
+      <c r="N63" s="2">
         <v>15</v>
       </c>
-      <c r="N63" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O63" s="7" t="s">
+      <c r="O63" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
         <v>102</v>
       </c>
@@ -3776,34 +3973,37 @@
         <v>5</v>
       </c>
       <c r="H64" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I64" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J64" s="2">
-        <v>30</v>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K64" s="2">
+        <v>30</v>
+      </c>
+      <c r="L64" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M64" s="2">
+        <v>3</v>
+      </c>
+      <c r="N64" s="2">
         <v>15</v>
       </c>
-      <c r="N64" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O64" s="7" t="s">
+      <c r="O64" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P64" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>103</v>
       </c>
@@ -3820,34 +4020,37 @@
         <v>5</v>
       </c>
       <c r="H65" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I65" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J65" s="2">
-        <v>30</v>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K65" s="2">
+        <v>30</v>
+      </c>
+      <c r="L65" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M65" s="2">
+        <v>3</v>
+      </c>
+      <c r="N65" s="2">
         <v>10</v>
       </c>
-      <c r="N65" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O65" s="7" t="s">
+      <c r="O65" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
         <v>145</v>
       </c>
@@ -3864,34 +4067,37 @@
         <v>5</v>
       </c>
       <c r="H67" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I67" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J67" s="2">
-        <v>30</v>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K67" s="2">
+        <v>30</v>
+      </c>
+      <c r="L67" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M67" s="2">
+        <v>3</v>
+      </c>
+      <c r="N67" s="2">
         <v>20</v>
       </c>
-      <c r="N67" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O67" s="2" t="s">
+      <c r="O67" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P67" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="P67" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
         <v>146</v>
       </c>
@@ -3908,34 +4114,37 @@
         <v>5</v>
       </c>
       <c r="H68" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I68" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J68" s="2">
-        <v>30</v>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K68" s="2">
+        <v>30</v>
+      </c>
+      <c r="L68" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M68" s="2">
+        <v>3</v>
+      </c>
+      <c r="N68" s="2">
         <v>20</v>
       </c>
-      <c r="N68" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O68" s="2" t="s">
+      <c r="O68" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P68" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
         <v>147</v>
       </c>
@@ -3952,34 +4161,37 @@
         <v>5</v>
       </c>
       <c r="H69" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I69" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J69" s="2">
-        <v>30</v>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K69" s="2">
+        <v>30</v>
+      </c>
+      <c r="L69" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M69" s="2">
+        <v>3</v>
+      </c>
+      <c r="N69" s="2">
         <v>20</v>
       </c>
-      <c r="N69" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O69" s="2" t="s">
+      <c r="O69" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P69" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>148</v>
       </c>
@@ -3996,30 +4208,80 @@
         <v>5</v>
       </c>
       <c r="H70" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I70" s="2">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J70" s="2">
-        <v>30</v>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="K70" s="2">
+        <v>30</v>
+      </c>
+      <c r="L70" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="M70" s="2">
+        <v>3</v>
+      </c>
+      <c r="N70" s="2">
         <v>20</v>
       </c>
-      <c r="N70" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P70" s="2">
+      <c r="O70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B72" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>300</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>999</v>
+      </c>
+      <c r="J72" s="2">
+        <v>8</v>
+      </c>
+      <c r="K72" s="2">
+        <v>30</v>
+      </c>
+      <c r="L72" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2">
+        <v>3</v>
+      </c>
+      <c r="N72" s="2">
+        <v>999</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q72" s="2">
         <v>0</v>
       </c>
     </row>
